--- a/trunk/EnvironmentConf/DEV.xlsx
+++ b/trunk/EnvironmentConf/DEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="45" windowWidth="14310" windowHeight="14580" activeTab="1"/>
+    <workbookView xWindow="14505" yWindow="45" windowWidth="14310" windowHeight="14595" tabRatio="546" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="MQ Triggers" sheetId="8" r:id="rId8"/>
     <sheet name="Subscribers" sheetId="9" r:id="rId9"/>
     <sheet name="ManagedFileTransfer" sheetId="10" r:id="rId10"/>
+    <sheet name="Publications" sheetId="11" r:id="rId11"/>
+    <sheet name="MQAut" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="307">
   <si>
     <t>Queue Name</t>
   </si>
@@ -370,9 +372,6 @@
     <t>EC185528119388BCE040007F01004D73</t>
   </si>
   <si>
-    <t>SELECT sys_guid() FROM dual</t>
-  </si>
-  <si>
     <t>Used to instruct WMB to generate a number of UUIDs</t>
   </si>
   <si>
@@ -457,9 +456,6 @@
     <t>MQ Command</t>
   </si>
   <si>
-    <t>/FGC/Mobilising/DEVELOPMENT/Table/STS_INCIDENTS</t>
-  </si>
-  <si>
     <t>fgc0002d</t>
   </si>
   <si>
@@ -524,13 +520,439 @@
   </si>
   <si>
     <t>This is the preferred method of connection going forward</t>
+  </si>
+  <si>
+    <t>STEP_SS</t>
+  </si>
+  <si>
+    <t>step_userd</t>
+  </si>
+  <si>
+    <t>Stepuserd999</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>STATSNX_LIVE</t>
+  </si>
+  <si>
+    <t>R3ms09_1</t>
+  </si>
+  <si>
+    <t>Enables testing of the STATSNX publishing</t>
+  </si>
+  <si>
+    <t>Topic Name</t>
+  </si>
+  <si>
+    <t>Topic String</t>
+  </si>
+  <si>
+    <t>STS_INCIDENTS</t>
+  </si>
+  <si>
+    <t>SYSTEM.DEFAULT.TOPIC</t>
+  </si>
+  <si>
+    <t>/FGC/Mobilising/Table/STS_INCIDENTS</t>
+  </si>
+  <si>
+    <t>Destination Name</t>
+  </si>
+  <si>
+    <t>Incident details published from the mobilisation system.</t>
+  </si>
+  <si>
+    <t>OCP.INCIDENTS</t>
+  </si>
+  <si>
+    <t>008121A9CA484115E050007F010005BF</t>
+  </si>
+  <si>
+    <t>OCP.SVC.CRUD</t>
+  </si>
+  <si>
+    <t>CRUD Service for OnCall Payments</t>
+  </si>
+  <si>
+    <t>01233579C0FA0EF3E050007F01002A55</t>
+  </si>
+  <si>
+    <t>bed586a0-2d18-11e4-80ec-0a5223b90000</t>
+  </si>
+  <si>
+    <t>Use "New_UUID" service</t>
+  </si>
+  <si>
+    <t>Trigger to create the payments export file. (OCP)</t>
+  </si>
+  <si>
+    <t>Trigger to perform an erroneous payments check. (OCP)</t>
+  </si>
+  <si>
+    <t>Trigger to create On-Call Payments at Training Centre (OCP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-Call Incident Payments </t>
+  </si>
+  <si>
+    <t>OCP.INCIDENTS.SUB</t>
+  </si>
+  <si>
+    <t>Name Length</t>
+  </si>
+  <si>
+    <t>STATSNX.SUB</t>
+  </si>
+  <si>
+    <t>STATSNX Subscriber</t>
+  </si>
+  <si>
+    <t>/FGC/Mobilising/Table/#</t>
+  </si>
+  <si>
+    <t>33ff6c22-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff6d44-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff6dc6-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff6e3e-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff6eb6-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff6f9c-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7014-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7082-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff70fa-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7168-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff71e0-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff724e-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff72c6-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7334-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff73a2-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7410-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff747e-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff74f6-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7564-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff75d2-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff764a-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff76b8-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7726-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff779e-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff780c-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff787a-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff78f2-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7960-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7a32-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7abe-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7b2c-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7ba4-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7c12-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7c80-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7cf8-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7d66-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7dd4-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7eb0-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7f28-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff7fa0-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8018-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8086-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff80f4-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff816c-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff81da-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8248-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff82b6-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff832e-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff839c-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8612-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8694-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8702-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8770-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff87de-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8856-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff88c4-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8932-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff89a0-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8a18-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8a86-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8af4-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8b62-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8bda-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8c48-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8cb6-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8d24-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8d92-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8e00-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8e6e-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8f36-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff8fae-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff901c-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9094-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9102-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9170-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff91f2-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9260-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff92ce-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff933c-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff93aa-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9422-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9490-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff94fe-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9576-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff95e4-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9652-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff96c0-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff972e-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff979c-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff980a-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff98d2-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9954-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff99c2-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9a30-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9a9e-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9b16-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9b84-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9bf2-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9c60-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>33ff9cd8-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>Trigger to create Drill Night Payments (OCP)</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>FGC.SVC.ESCALATE</t>
+  </si>
+  <si>
+    <t>Generic Escalation Service</t>
+  </si>
+  <si>
+    <t>Trigger to publish data from the STATSNX schema.</t>
+  </si>
+  <si>
+    <t>OCP.SVC.EXPORTPAYCLAIMS</t>
+  </si>
+  <si>
+    <t>Service to perform an export of pay claims</t>
+  </si>
+  <si>
+    <t>OCP.SVC.ERRPAYCHECK</t>
+  </si>
+  <si>
+    <t>Service to check pay claims and hold those in error</t>
+  </si>
+  <si>
+    <t>OCP.SVC.PAYROLLCUTOFF</t>
+  </si>
+  <si>
+    <t>Service for Payroll to perform a cutoff of pending claims</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,14 +1044,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <strike/>
@@ -816,7 +1230,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -826,12 +1240,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1"/>
@@ -844,7 +1257,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -857,27 +1269,26 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="4"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="11" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="10" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="12">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
-    <cellStyle name="Bad" xfId="12" builtinId="27"/>
+    <cellStyle name="Bad" xfId="11" builtinId="27"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
-    <cellStyle name="Good" xfId="10" builtinId="26"/>
+    <cellStyle name="Good" xfId="9" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="4" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="5" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="6" builtinId="18"/>
-    <cellStyle name="Input" xfId="11" builtinId="20"/>
+    <cellStyle name="Input" xfId="10" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_BPM4ROUTING" xfId="7"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Title" xfId="9" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1203,7 +1614,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -1224,7 +1635,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1272,23 +1683,23 @@
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>155</v>
+    <row r="1" spans="1:3" s="19" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>157</v>
+      <c r="A3" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE("mkdir -p ",$A$3,"/",A5)</f>
@@ -1308,16 +1719,82 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE("DEFINE SUB(",A2,") TOPICSTR(",UPPER(C2),") TOPICOBJ(",B2,") DEST(",D2,")")</f>
+        <v>DEFINE SUB(STS_INCIDENTS) TOPICSTR(/FGC/MOBILISING/TABLE/STS_INCIDENTS) TOPICOBJ(SYSTEM.DEFAULT.TOPIC) DEST(OCP.INCIDENTS)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,103 +1803,125 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" s="18" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="23" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="23" t="str">
+      <c r="D2" s="22" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A2," -u ",B2," -p ",C2)</f>
         <v>mqsisetdbparms brk0002d -n TESTDB -u CMTEST -p jm08_cmt</v>
       </c>
-      <c r="F2" s="23" t="str">
+      <c r="F2" s="22" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A2)</f>
         <v>mqsicvp brk0002d -n TESTDB</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="23" t="str">
+      <c r="C3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="22" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A3," -u ",B3," -p ",C3)</f>
         <v>mqsisetdbparms brk0002d -n ESBCONF -u wmbadmin -p d5FZg2E9i9dGnChE4w1q</v>
       </c>
-      <c r="F3" s="23" t="str">
+      <c r="F3" s="22" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A3)</f>
         <v>mqsicvp brk0002d -n ESBCONF</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="23" t="str">
+      <c r="D4" s="22" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A4," -u ",B4," -p ",C4)</f>
         <v>mqsisetdbparms brk0002d -n BPMDB -u bpmdbusr -p b0z2kh95</v>
       </c>
-      <c r="F4" s="23" t="str">
+      <c r="F4" s="22" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A4)</f>
         <v>mqsicvp brk0002d -n BPMDB</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="23" t="str">
+      <c r="D6" s="22" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A6," -u ",B6," -p ",C6)</f>
         <v>mqsisetdbparms brk0002d -n STATSNX_TEST -u statsnx -p statsnx</v>
       </c>
-      <c r="F6" s="23" t="str">
+      <c r="F6" s="22" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A6)</f>
         <v>mqsicvp brk0002d -n STATSNX_TEST</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A7," -u ",B7," -p ",C7)</f>
+        <v>mqsisetdbparms brk0002d -n STATSNX_LIVE -u statsnx -p R3ms09_1</v>
+      </c>
+      <c r="F7" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A7)</f>
+        <v>mqsicvp brk0002d -n STATSNX_LIVE</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1441,7 +1940,7 @@
         <v>mqsicvp brk0002d -n CFRS_LIVE</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -1460,7 +1959,7 @@
         <v>mqsicvp brk0002d -n RRRED</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1479,71 +1978,96 @@
         <v>mqsicvp brk0002d -n DM_CADM</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="23" t="str">
+      <c r="D16" s="22" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A16," -u ",B16," -p ",C16)</f>
         <v>mqsisetdbparms brk0002d -n RECRUITMENT_DEV -u rec_userd -p Recuserd999</v>
       </c>
-      <c r="F16" s="23" t="str">
+      <c r="F16" s="22" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A16)</f>
         <v>mqsicvp brk0002d -n RECRUITMENT_DEV</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+    <row r="20" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="26" t="str">
+      <c r="D21" s="25" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A21," -u ",B21," -p ",C21)</f>
         <v>mqsisetdbparms brk0002d -n STEP_TEST -u STEP -p h53ks!f</v>
       </c>
-      <c r="F21" s="26" t="str">
+      <c r="F21" s="25" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A21)</f>
         <v>mqsicvp brk0002d -n STEP_TEST</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+    <row r="22" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="23" t="str">
+      <c r="D23" s="22" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A23," -u ",B23," -p ",C23)</f>
         <v>mqsisetdbparms brk0002d -n STEP -u STEP -p h53ks!f</v>
       </c>
-      <c r="F23" s="23" t="str">
+      <c r="F23" s="22" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A23)</f>
         <v>mqsicvp brk0002d -n STEP</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A24," -u ",B24," -p ",C24)</f>
+        <v>mqsisetdbparms brk0002d -n STEP_SS -u step_userd -p Stepuserd999</v>
+      </c>
+      <c r="F24" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A24)</f>
+        <v>mqsicvp brk0002d -n STEP_SS</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1556,13 +2080,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="107.7109375" bestFit="1" customWidth="1"/>
@@ -1598,7 +2123,7 @@
         <v>100000</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE("DEFINE QL(",A2,") MAXMSGL(",B2,") MAXDEPTH(",C2,") DESCR('",D2,"') REPLACE")</f>
@@ -1834,20 +2359,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C18">
         <v>100000</v>
       </c>
       <c r="G18" t="str">
         <f>CONCATENATE("DEFINE QL(",A18,ConfigData!$D$2,") MAXMSGL(",B18,") MAXDEPTH(",C18,") DESCR('",D18,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.CACHE) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.CACHE) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -1868,17 +2392,17 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2157,16 +2681,16 @@
         <v>DELETE QLOCAL(UKFF.BPM.SERVICE.RESPONSE) PURGE</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+    <row r="13" spans="1:6" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14">
         <f>4*2^20</f>
@@ -2176,7 +2700,7 @@
         <v>5000</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A14,ConfigData!$D$2,") MAXMSGL(",B14,") MAXDEPTH(",C14,") DESCR('",D14,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
@@ -2189,7 +2713,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15">
         <f>100*2^20</f>
@@ -2199,7 +2723,7 @@
         <v>100000</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A15,ConfigData!$D$2,") MAXMSGL(",B15,") MAXDEPTH(",C15,") DESCR('",D15,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
@@ -2212,7 +2736,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16">
         <f>4*2^20</f>
@@ -2235,7 +2759,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B18">
         <f>4*2^20</f>
@@ -2245,7 +2769,7 @@
         <v>5000</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E18" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A18,ConfigData!$D$2,") MAXMSGL(",B18,") MAXDEPTH(",C18,") DESCR('",D18,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
@@ -2265,18 +2789,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="179.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="7"/>
   </cols>
@@ -2285,10 +2809,10 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -2324,7 +2848,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4">
         <f>4*2^20</f>
@@ -2334,7 +2858,7 @@
         <v>5000</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E4" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A4,ConfigData!$D$2,") MAXMSGL(",B4,") MAXDEPTH(",C4,") DESCR('",D4,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
@@ -2345,32 +2869,184 @@
         <v>DELETE QLOCAL(BPM.EVENTMESSAGE) PURGE</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="12" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6">
+        <f>100*2^20</f>
+        <v>104857600</v>
+      </c>
+      <c r="C6">
+        <v>500000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A6,ConfigData!$D$2,") MAXMSGL(",B6,") MAXDEPTH(",C6,") DESCR('",D6,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(OCP.INCIDENTS.SUB) MAXMSGL(104857600) MAXDEPTH(500000) DESCR('Incident details published from the mobilisation system.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f t="shared" ref="F6:F14" si="0">CONCATENATE("DELETE QLOCAL(",A6,") PURGE")</f>
+        <v>DELETE QLOCAL(OCP.INCIDENTS.SUB) PURGE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C7">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A7,ConfigData!$D$2,") MAXMSGL(",B7,") MAXDEPTH(",C7,") DESCR('",D7,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(OCP.SVC.CRUD) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('CRUD Service for OnCall Payments') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>DELETE QLOCAL(OCP.SVC.CRUD) PURGE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8">
+        <f>1*2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A8,ConfigData!$D$2,") MAXMSGL(",B8,") MAXDEPTH(",C8,") DESCR('",D8,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(OCP.SVC.EXPORTPAYCLAIMS) MAXMSGL(1048576) MAXDEPTH(10) DESCR('Service to perform an export of pay claims') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f t="shared" ref="F8" si="1">CONCATENATE("DELETE QLOCAL(",A8,") PURGE")</f>
+        <v>DELETE QLOCAL(OCP.SVC.EXPORTPAYCLAIMS) PURGE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9">
+        <f>1*2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A9,ConfigData!$D$2,") MAXMSGL(",B9,") MAXDEPTH(",C9,") DESCR('",D9,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(OCP.SVC.ERRPAYCHECK) MAXMSGL(1048576) MAXDEPTH(10) DESCR('Service to check pay claims and hold those in error') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f t="shared" ref="F9" si="2">CONCATENATE("DELETE QLOCAL(",A9,") PURGE")</f>
+        <v>DELETE QLOCAL(OCP.SVC.ERRPAYCHECK) PURGE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10">
+        <f>1*2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A10,ConfigData!$D$2,") MAXMSGL(",B10,") MAXDEPTH(",C10,") DESCR('",D10,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(OCP.SVC.PAYROLLCUTOFF) MAXMSGL(1048576) MAXDEPTH(10) DESCR('Service for Payroll to perform a cutoff of pending claims') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f t="shared" ref="F10" si="3">CONCATENATE("DELETE QLOCAL(",A10,") PURGE")</f>
+        <v>DELETE QLOCAL(OCP.SVC.PAYROLLCUTOFF) PURGE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12">
+        <f>100*2^20</f>
+        <v>104857600</v>
+      </c>
+      <c r="C12">
+        <v>500000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A12,ConfigData!$D$2,") MAXMSGL(",B12,") MAXDEPTH(",C12,") DESCR('",D12,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(STATSNX.SUB) MAXMSGL(104857600) MAXDEPTH(500000) DESCR('STATSNX Subscriber') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>DELETE QLOCAL(STATSNX.SUB) PURGE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C14">
+        <v>5000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A14,ConfigData!$D$2,") MAXMSGL(",B14,") MAXDEPTH(",C14,") DESCR('",D14,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(FGC.SVC.ESCALATE) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('Generic Escalation Service') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>DELETE QLOCAL(FGC.SVC.ESCALATE) PURGE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2384,7 +3060,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -3195,10 +3871,10 @@
         <v>58</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>60</v>
@@ -3237,10 +3913,10 @@
         <v>58</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>60</v>
@@ -3255,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>58</v>
@@ -3308,16 +3984,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
@@ -3330,42 +4006,48 @@
       <c r="A1" s="9" t="s">
         <v>112</v>
       </c>
+      <c r="B1" s="9" t="s">
+        <v>297</v>
+      </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="15" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>CONCATENATE(A4,".",B4)</f>
@@ -3382,19 +4064,19 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",C4,ConfigData!$D$2,") MAXMSGL(",E4,") MAXDEPTH(",F4,") DESCR('",G4,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(TRG.CRON) MAXMSGL(4096) MAXDEPTH(1) DESCR('Initiator queue for scheduler, put from cron job') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>CONCATENATE(A5,".",B5)</f>
@@ -3411,20 +4093,20 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",C5,ConfigData!$D$2,") MAXMSGL(",E5,") MAXDEPTH(",F5,") DESCR('",G5,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(TRG.CRONHIST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Standard queue for triming cron history.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="H6" s="17"/>
+    <row r="6" spans="1:9" s="15" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3434,25 +4116,26 @@
         <v>110</v>
       </c>
       <c r="C7" s="7" t="str">
-        <f>CONCATENATE(A7,".",B7)</f>
+        <f>IF(NOT(ISBLANK(B7)),CONCATENATE(A7,".",SUBSTITUTE(UPPER(B7),"-","")),"")</f>
         <v>TRG.EA938F900E757A39E040007F01001B22</v>
       </c>
       <c r="D7" s="7">
-        <f>LEN(C7)</f>
+        <f>IF(NOT(ISBLANK(C7)),LEN(C7),"")</f>
         <v>36</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E8" si="0">4*2^10</f>
+        <f>IF(NOT(ISBLANK(C7)),4*2^10,"")</f>
         <v>4096</v>
       </c>
       <c r="F7">
+        <f>IF(NOT(ISBLANK(C7)),1,"")</f>
         <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>111</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f>CONCATENATE("DEFINE QL(",C7,ConfigData!$D$2,") MAXMSGL(",E7,") MAXDEPTH(",F7,") DESCR('",G7,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <f>IF(NOT(ISBLANK(C7)),CONCATENATE("DEFINE QL(",C7,ConfigData!$D$2,") MAXMSGL(",E7,") MAXDEPTH(",F7,") DESCR('",G7,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
         <v>DEFINE QL(TRG.EA938F900E757A39E040007F01001B22) MAXMSGL(4096) MAXDEPTH(1) DESCR('Invalid Transaction Report for Government Procurement Cards') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
       <c r="I7" t="str">
@@ -3468,25 +4151,26 @@
         <v>114</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f>CONCATENATE(A8,".",B8)</f>
+        <f t="shared" ref="C8:C18" si="0">IF(NOT(ISBLANK(B8)),CONCATENATE(A8,".",SUBSTITUTE(UPPER(B8),"-","")),"")</f>
         <v>TRG.EC185528119388BCE040007F01004D73</v>
       </c>
       <c r="D8" s="7">
-        <f>LEN(C8)</f>
+        <f t="shared" ref="D8:D72" si="1">IF(NOT(ISBLANK(C8)),LEN(C8),"")</f>
         <v>36</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E8:E72" si="2">IF(NOT(ISBLANK(C8)),4*2^10,"")</f>
         <v>4096</v>
       </c>
       <c r="F8">
+        <f t="shared" ref="F8:F72" si="3">IF(NOT(ISBLANK(C8)),1,"")</f>
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f>CONCATENATE("DEFINE QL(",C8,ConfigData!$D$2,") MAXMSGL(",E8,") MAXDEPTH(",F8,") DESCR('",G8,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <f>IF(NOT(ISBLANK(C8)),CONCATENATE("DEFINE QL(",C8,ConfigData!$D$2,") MAXMSGL(",E8,") MAXDEPTH(",F8,") DESCR('",G8,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
         <v>DEFINE QL(TRG.EC185528119388BCE040007F01004D73) MAXMSGL(4096) MAXDEPTH(1) DESCR('Used to instruct WMB to generate a number of UUIDs') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
       <c r="I8" t="str">
@@ -3499,28 +4183,29 @@
         <v>113</v>
       </c>
       <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>TRG.EDCF96F73298DCD6E040007F01002A78</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="7" t="str">
-        <f>CONCATENATE(A9,".",B9)</f>
-        <v>TRG.EDCF96F73298DCD6E040007F01002A78</v>
-      </c>
-      <c r="D9" s="7">
-        <f>LEN(C9)</f>
-        <v>36</v>
-      </c>
-      <c r="E9">
-        <f>4*2^10</f>
-        <v>4096</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>118</v>
-      </c>
       <c r="H9" s="7" t="str">
-        <f>CONCATENATE("DEFINE QL(",C9,ConfigData!$D$2,") MAXMSGL(",E9,") MAXDEPTH(",F9,") DESCR('",G9,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <f>IF(NOT(ISBLANK(C9)),CONCATENATE("DEFINE QL(",C9,ConfigData!$D$2,") MAXMSGL(",E9,") MAXDEPTH(",F9,") DESCR('",G9,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
         <v>DEFINE QL(TRG.EDCF96F73298DCD6E040007F01002A78) MAXMSGL(4096) MAXDEPTH(1) DESCR('Used to trigger the export of data to a Dream CSV import file') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
       <c r="I9" t="str">
@@ -3533,28 +4218,29 @@
         <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="7" t="str">
-        <f>CONCATENATE(A10,".",B10)</f>
+        <f t="shared" si="0"/>
         <v>TRG.F3B0761D73C7BE83E040007F01006A57</v>
       </c>
       <c r="D10" s="7">
-        <f>LEN(C10)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E11" si="1">4*2^10</f>
+        <f t="shared" si="2"/>
         <v>4096</v>
       </c>
       <c r="F10">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f>CONCATENATE("DEFINE QL(",C10,ConfigData!$D$2,") MAXMSGL(",E10,") MAXDEPTH(",F10,") DESCR('",G10,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <f>IF(NOT(ISBLANK(C10)),CONCATENATE("DEFINE QL(",C10,ConfigData!$D$2,") MAXMSGL(",E10,") MAXDEPTH(",F10,") DESCR('",G10,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
         <v>DEFINE QL(TRG.F3B0761D73C7BE83E040007F01006A57) MAXMSGL(4096) MAXDEPTH(1) DESCR('Gets and reports on BPM instances in an error state.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
@@ -3563,29 +4249,2387 @@
         <v>113</v>
       </c>
       <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>TRG.F3D9AACA7497D170E040007F0100653C</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="7" t="str">
-        <f>CONCATENATE(A11,".",B11)</f>
-        <v>TRG.F3D9AACA7497D170E040007F0100653C</v>
-      </c>
-      <c r="D11" s="7">
-        <f>LEN(C11)</f>
+      <c r="H11" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C11)),CONCATENATE("DEFINE QL(",C11,ConfigData!$D$2,") MAXMSGL(",E11,") MAXDEPTH(",F11,") DESCR('",G11,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.F3D9AACA7497D170E040007F0100653C) MAXMSGL(4096) MAXDEPTH(1) DESCR('Received task notification email.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C12)),CONCATENATE("DEFINE QL(",C12,ConfigData!$D$2,") MAXMSGL(",E12,") MAXDEPTH(",F12,") DESCR('",G12,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>TRG.008121A9CA484115E050007F010005BF</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
+      <c r="E13">
+        <f t="shared" si="2"/>
         <v>4096</v>
       </c>
-      <c r="F11">
+      <c r="F13">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="7" t="str">
-        <f>CONCATENATE("DEFINE QL(",C11,ConfigData!$D$2,") MAXMSGL(",E11,") MAXDEPTH(",F11,") DESCR('",G11,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.F3D9AACA7497D170E040007F0100653C) MAXMSGL(4096) MAXDEPTH(1) DESCR('Received task notification email.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      <c r="G13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C13)),CONCATENATE("DEFINE QL(",C13,ConfigData!$D$2,") MAXMSGL(",E13,") MAXDEPTH(",F13,") DESCR('",G13,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.008121A9CA484115E050007F010005BF) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create On-Call Payments at Training Centre (OCP)') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>TRG.01233579C0FA0EF3E050007F01002A55</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C14)),CONCATENATE("DEFINE QL(",C14,ConfigData!$D$2,") MAXMSGL(",E14,") MAXDEPTH(",F14,") DESCR('",G14,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.01233579C0FA0EF3E050007F01002A55) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform an erroneous payments check. (OCP)') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>TRG.BED586A02D1811E480EC0A5223B90000</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>187</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C15)),CONCATENATE("DEFINE QL(",C15,ConfigData!$D$2,") MAXMSGL(",E15,") MAXDEPTH(",F15,") DESCR('",G15,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.BED586A02D1811E480EC0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create the payments export file. (OCP)') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>TRG.33FF6C2239A611E4BACA0A5223B90000</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C16)),CONCATENATE("DEFINE QL(",C16,ConfigData!$D$2,") MAXMSGL(",E16,") MAXDEPTH(",F16,") DESCR('",G16,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.33FF6C2239A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create Drill Night Payments (OCP)') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>TRG.33FF6D4439A611E4BACA0A5223B90000</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>300</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C18)),CONCATENATE("DEFINE QL(",C18,ConfigData!$D$2,") MAXMSGL(",E18,") MAXDEPTH(",F18,") DESCR('",G18,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.33FF6D4439A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to publish data from the STATSNX schema.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C19)),CONCATENATE("DEFINE QL(",C19,ConfigData!$D$2,") MAXMSGL(",E19,") MAXDEPTH(",F19,") DESCR('",G19,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H20" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C20)),CONCATENATE("DEFINE QL(",C20,ConfigData!$D$2,") MAXMSGL(",E20,") MAXDEPTH(",F20,") DESCR('",G20,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H21" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C21)),CONCATENATE("DEFINE QL(",C21,ConfigData!$D$2,") MAXMSGL(",E21,") MAXDEPTH(",F21,") DESCR('",G21,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C22)),CONCATENATE("DEFINE QL(",C22,ConfigData!$D$2,") MAXMSGL(",E22,") MAXDEPTH(",F22,") DESCR('",G22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C23)),CONCATENATE("DEFINE QL(",C23,ConfigData!$D$2,") MAXMSGL(",E23,") MAXDEPTH(",F23,") DESCR('",G23,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C24)),CONCATENATE("DEFINE QL(",C24,ConfigData!$D$2,") MAXMSGL(",E24,") MAXDEPTH(",F24,") DESCR('",G24,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H25" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C25)),CONCATENATE("DEFINE QL(",C25,ConfigData!$D$2,") MAXMSGL(",E25,") MAXDEPTH(",F25,") DESCR('",G25,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H26" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C26)),CONCATENATE("DEFINE QL(",C26,ConfigData!$D$2,") MAXMSGL(",E26,") MAXDEPTH(",F26,") DESCR('",G26,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H27" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C27)),CONCATENATE("DEFINE QL(",C27,ConfigData!$D$2,") MAXMSGL(",E27,") MAXDEPTH(",F27,") DESCR('",G27,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H28" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C28)),CONCATENATE("DEFINE QL(",C28,ConfigData!$D$2,") MAXMSGL(",E28,") MAXDEPTH(",F28,") DESCR('",G28,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H29" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C29)),CONCATENATE("DEFINE QL(",C29,ConfigData!$D$2,") MAXMSGL(",E29,") MAXDEPTH(",F29,") DESCR('",G29,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H30" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C30)),CONCATENATE("DEFINE QL(",C30,ConfigData!$D$2,") MAXMSGL(",E30,") MAXDEPTH(",F30,") DESCR('",G30,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H31" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C31)),CONCATENATE("DEFINE QL(",C31,ConfigData!$D$2,") MAXMSGL(",E31,") MAXDEPTH(",F31,") DESCR('",G31,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H32" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C32)),CONCATENATE("DEFINE QL(",C32,ConfigData!$D$2,") MAXMSGL(",E32,") MAXDEPTH(",F32,") DESCR('",G32,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H33" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C33)),CONCATENATE("DEFINE QL(",C33,ConfigData!$D$2,") MAXMSGL(",E33,") MAXDEPTH(",F33,") DESCR('",G33,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H34" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C34)),CONCATENATE("DEFINE QL(",C34,ConfigData!$D$2,") MAXMSGL(",E34,") MAXDEPTH(",F34,") DESCR('",G34,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H35" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C35)),CONCATENATE("DEFINE QL(",C35,ConfigData!$D$2,") MAXMSGL(",E35,") MAXDEPTH(",F35,") DESCR('",G35,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H36" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C36)),CONCATENATE("DEFINE QL(",C36,ConfigData!$D$2,") MAXMSGL(",E36,") MAXDEPTH(",F36,") DESCR('",G36,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H37" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C37)),CONCATENATE("DEFINE QL(",C37,ConfigData!$D$2,") MAXMSGL(",E37,") MAXDEPTH(",F37,") DESCR('",G37,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H38" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C38)),CONCATENATE("DEFINE QL(",C38,ConfigData!$D$2,") MAXMSGL(",E38,") MAXDEPTH(",F38,") DESCR('",G38,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H39" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C39)),CONCATENATE("DEFINE QL(",C39,ConfigData!$D$2,") MAXMSGL(",E39,") MAXDEPTH(",F39,") DESCR('",G39,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H40" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C40)),CONCATENATE("DEFINE QL(",C40,ConfigData!$D$2,") MAXMSGL(",E40,") MAXDEPTH(",F40,") DESCR('",G40,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H41" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C41)),CONCATENATE("DEFINE QL(",C41,ConfigData!$D$2,") MAXMSGL(",E41,") MAXDEPTH(",F41,") DESCR('",G41,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H42" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C42)),CONCATENATE("DEFINE QL(",C42,ConfigData!$D$2,") MAXMSGL(",E42,") MAXDEPTH(",F42,") DESCR('",G42,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H43" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C43)),CONCATENATE("DEFINE QL(",C43,ConfigData!$D$2,") MAXMSGL(",E43,") MAXDEPTH(",F43,") DESCR('",G43,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H44" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C44)),CONCATENATE("DEFINE QL(",C44,ConfigData!$D$2,") MAXMSGL(",E44,") MAXDEPTH(",F44,") DESCR('",G44,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H45" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C45)),CONCATENATE("DEFINE QL(",C45,ConfigData!$D$2,") MAXMSGL(",E45,") MAXDEPTH(",F45,") DESCR('",G45,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H46" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C46)),CONCATENATE("DEFINE QL(",C46,ConfigData!$D$2,") MAXMSGL(",E46,") MAXDEPTH(",F46,") DESCR('",G46,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H47" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C47)),CONCATENATE("DEFINE QL(",C47,ConfigData!$D$2,") MAXMSGL(",E47,") MAXDEPTH(",F47,") DESCR('",G47,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H48" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C48)),CONCATENATE("DEFINE QL(",C48,ConfigData!$D$2,") MAXMSGL(",E48,") MAXDEPTH(",F48,") DESCR('",G48,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H49" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C49)),CONCATENATE("DEFINE QL(",C49,ConfigData!$D$2,") MAXMSGL(",E49,") MAXDEPTH(",F49,") DESCR('",G49,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H50" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C50)),CONCATENATE("DEFINE QL(",C50,ConfigData!$D$2,") MAXMSGL(",E50,") MAXDEPTH(",F50,") DESCR('",G50,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H51" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C51)),CONCATENATE("DEFINE QL(",C51,ConfigData!$D$2,") MAXMSGL(",E51,") MAXDEPTH(",F51,") DESCR('",G51,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H52" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C52)),CONCATENATE("DEFINE QL(",C52,ConfigData!$D$2,") MAXMSGL(",E52,") MAXDEPTH(",F52,") DESCR('",G52,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H53" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C53)),CONCATENATE("DEFINE QL(",C53,ConfigData!$D$2,") MAXMSGL(",E53,") MAXDEPTH(",F53,") DESCR('",G53,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H54" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C54)),CONCATENATE("DEFINE QL(",C54,ConfigData!$D$2,") MAXMSGL(",E54,") MAXDEPTH(",F54,") DESCR('",G54,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H55" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C55)),CONCATENATE("DEFINE QL(",C55,ConfigData!$D$2,") MAXMSGL(",E55,") MAXDEPTH(",F55,") DESCR('",G55,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H56" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C56)),CONCATENATE("DEFINE QL(",C56,ConfigData!$D$2,") MAXMSGL(",E56,") MAXDEPTH(",F56,") DESCR('",G56,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H57" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C57)),CONCATENATE("DEFINE QL(",C57,ConfigData!$D$2,") MAXMSGL(",E57,") MAXDEPTH(",F57,") DESCR('",G57,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H58" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C58)),CONCATENATE("DEFINE QL(",C58,ConfigData!$D$2,") MAXMSGL(",E58,") MAXDEPTH(",F58,") DESCR('",G58,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H59" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C59)),CONCATENATE("DEFINE QL(",C59,ConfigData!$D$2,") MAXMSGL(",E59,") MAXDEPTH(",F59,") DESCR('",G59,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H60" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C60)),CONCATENATE("DEFINE QL(",C60,ConfigData!$D$2,") MAXMSGL(",E60,") MAXDEPTH(",F60,") DESCR('",G60,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H61" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C61)),CONCATENATE("DEFINE QL(",C61,ConfigData!$D$2,") MAXMSGL(",E61,") MAXDEPTH(",F61,") DESCR('",G61,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H62" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C62)),CONCATENATE("DEFINE QL(",C62,ConfigData!$D$2,") MAXMSGL(",E62,") MAXDEPTH(",F62,") DESCR('",G62,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" t="s">
+        <v>240</v>
+      </c>
+      <c r="D63" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H63" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C63)),CONCATENATE("DEFINE QL(",C63,ConfigData!$D$2,") MAXMSGL(",E63,") MAXDEPTH(",F63,") DESCR('",G63,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H64" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C64)),CONCATENATE("DEFINE QL(",C64,ConfigData!$D$2,") MAXMSGL(",E64,") MAXDEPTH(",F64,") DESCR('",G64,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H65" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C65)),CONCATENATE("DEFINE QL(",C65,ConfigData!$D$2,") MAXMSGL(",E65,") MAXDEPTH(",F65,") DESCR('",G65,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H66" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C66)),CONCATENATE("DEFINE QL(",C66,ConfigData!$D$2,") MAXMSGL(",E66,") MAXDEPTH(",F66,") DESCR('",G66,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" t="s">
+        <v>244</v>
+      </c>
+      <c r="D67" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H67" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C67)),CONCATENATE("DEFINE QL(",C67,ConfigData!$D$2,") MAXMSGL(",E67,") MAXDEPTH(",F67,") DESCR('",G67,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" t="s">
+        <v>245</v>
+      </c>
+      <c r="D68" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" t="s">
+        <v>247</v>
+      </c>
+      <c r="D70" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" t="s">
+        <v>248</v>
+      </c>
+      <c r="D71" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" t="s">
+        <v>249</v>
+      </c>
+      <c r="D72" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" s="7" t="str">
+        <f t="shared" ref="D73:D118" si="4">IF(NOT(ISBLANK(C73)),LEN(C73),"")</f>
+        <v/>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" ref="E73:E118" si="5">IF(NOT(ISBLANK(C73)),4*2^10,"")</f>
+        <v/>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" ref="F73:F118" si="6">IF(NOT(ISBLANK(C73)),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" t="s">
+        <v>253</v>
+      </c>
+      <c r="D76" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" t="s">
+        <v>254</v>
+      </c>
+      <c r="D77" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" t="s">
+        <v>256</v>
+      </c>
+      <c r="D79" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" t="s">
+        <v>257</v>
+      </c>
+      <c r="D80" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" t="s">
+        <v>263</v>
+      </c>
+      <c r="D86" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" t="s">
+        <v>264</v>
+      </c>
+      <c r="D87" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" t="s">
+        <v>265</v>
+      </c>
+      <c r="D88" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" t="s">
+        <v>266</v>
+      </c>
+      <c r="D89" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" t="s">
+        <v>267</v>
+      </c>
+      <c r="D90" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" t="s">
+        <v>268</v>
+      </c>
+      <c r="D91" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" t="s">
+        <v>270</v>
+      </c>
+      <c r="D93" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" t="s">
+        <v>271</v>
+      </c>
+      <c r="D94" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" t="s">
+        <v>272</v>
+      </c>
+      <c r="D95" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s">
+        <v>273</v>
+      </c>
+      <c r="D96" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" t="s">
+        <v>274</v>
+      </c>
+      <c r="D97" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" t="s">
+        <v>275</v>
+      </c>
+      <c r="D98" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" t="s">
+        <v>276</v>
+      </c>
+      <c r="D99" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
+        <v>277</v>
+      </c>
+      <c r="D100" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" t="s">
+        <v>278</v>
+      </c>
+      <c r="D101" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" t="s">
+        <v>279</v>
+      </c>
+      <c r="D102" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>281</v>
+      </c>
+      <c r="D104" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>282</v>
+      </c>
+      <c r="D105" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>283</v>
+      </c>
+      <c r="D106" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" t="s">
+        <v>284</v>
+      </c>
+      <c r="D107" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" t="s">
+        <v>285</v>
+      </c>
+      <c r="D108" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" t="s">
+        <v>286</v>
+      </c>
+      <c r="D109" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>287</v>
+      </c>
+      <c r="D110" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>288</v>
+      </c>
+      <c r="D111" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>289</v>
+      </c>
+      <c r="D112" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>290</v>
+      </c>
+      <c r="D113" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>291</v>
+      </c>
+      <c r="D114" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>292</v>
+      </c>
+      <c r="D115" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
+        <v>293</v>
+      </c>
+      <c r="D116" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>113</v>
+      </c>
+      <c r="B117" t="s">
+        <v>294</v>
+      </c>
+      <c r="D117" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>113</v>
+      </c>
+      <c r="B118" t="s">
+        <v>295</v>
+      </c>
+      <c r="D118" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -3597,48 +6641,78 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="130" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="170.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="20" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>143</v>
+      <c r="C1" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE("DEFINE SUB('",A3,"') TOPICSTR('",B3,"') DEST('",C3,"')")</f>
-        <v>DEFINE SUB('Non-Emergency Incident Reporting') TOPICSTR('/FGC/Mobilising/DEVELOPMENT/Table/STS_INCIDENTS') DEST('FGC.INCIDENTREP')</v>
+        <f>CONCATENATE("DEFINE SUB('",A3,"') TOPICSTR('",UPPER(B3),"') DEST('",C3,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
+        <v>DEFINE SUB('Non-Emergency Incident Reporting') TOPICSTR('/FGC/MOBILISING/TABLE/STS_INCIDENTS') DEST('FGC.INCIDENTREP') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="22" t="str">
+        <f>CONCATENATE("DEFINE SUB('",A5,"') TOPICSTR('",UPPER(B5),"') DEST('",C5,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
+        <v>DEFINE SUB('On-Call Incident Payments ') TOPICSTR('/FGC/MOBILISING/TABLE/#') DEST('OCP.INCIDENTS.SUB') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="22" t="str">
+        <f>CONCATENATE("DEFINE SUB('",A9,"') TOPICSTR('",UPPER(B9),"') DEST('",C9,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
+        <v>DEFINE SUB('STATSNX Subscriber') TOPICSTR('/FGC/MOBILISING/TABLE/#') DEST('STATSNX.SUB') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/EnvironmentConf/DEV.xlsx
+++ b/trunk/EnvironmentConf/DEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="45" windowWidth="14310" windowHeight="14595" tabRatio="546" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="14505" yWindow="45" windowWidth="14310" windowHeight="14595" tabRatio="546" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="311">
   <si>
     <t>Queue Name</t>
   </si>
@@ -946,6 +946,18 @@
   </si>
   <si>
     <t>Service for Payroll to perform a cutoff of pending claims</t>
+  </si>
+  <si>
+    <t>XLSTOXML.IN</t>
+  </si>
+  <si>
+    <t>XLSTOXML.OUT</t>
+  </si>
+  <si>
+    <t>Response queue to transform an Excel (XLS) to an XML document</t>
+  </si>
+  <si>
+    <t>Request queue to transform an Excel (XLS) to an XML document</t>
   </si>
 </sst>
 </file>
@@ -2080,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,8 +2128,7 @@
         <v>fgc0002d.BORQQ</v>
       </c>
       <c r="B2">
-        <f>4*2^20</f>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C2">
         <v>100000</v>
@@ -2127,7 +2138,7 @@
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE("DEFINE QL(",A2,") MAXMSGL(",B2,") MAXDEPTH(",C2,") DESCR('",D2,"') REPLACE")</f>
-        <v>DEFINE QL(fgc0002d.BORQQ) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('Backout queue for queue manager') REPLACE</v>
+        <v>DEFINE QL(fgc0002d.BORQQ) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('Backout queue for queue manager') REPLACE</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2135,15 +2146,14 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B19" si="0">4*2^20</f>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C4">
         <v>100000</v>
       </c>
       <c r="G4" t="str">
         <f>CONCATENATE("DEFINE QL(",A4,ConfigData!$D$2,") MAXMSGL(",B4,") MAXDEPTH(",C4,") DESCR('",D4,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.SVC.FRAMEWORK.STARTUP) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.SVC.FRAMEWORK.STARTUP) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2151,15 +2161,14 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="G5" t="str">
         <f>CONCATENATE("DEFINE QL(",A5,ConfigData!$D$2,") MAXMSGL(",B5,") MAXDEPTH(",C5,") DESCR('",D5,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.SVC.REGISTER) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.SVC.REGISTER) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2167,15 +2176,14 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C6">
         <v>100000</v>
       </c>
       <c r="G6" t="str">
         <f>CONCATENATE("DEFINE QL(",A6,ConfigData!$D$2,") MAXMSGL(",B6,") MAXDEPTH(",C6,") DESCR('",D6,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.ROUTING) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.ROUTING) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2183,15 +2191,14 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C7">
         <v>100000</v>
       </c>
       <c r="G7" t="str">
         <f>CONCATENATE("DEFINE QL(",A7,ConfigData!$D$2,") MAXMSGL(",B7,") MAXDEPTH(",C7,") DESCR('",D7,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.SVC.REGISTER) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.SVC.REGISTER) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2199,15 +2206,14 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C8">
         <v>100000</v>
       </c>
       <c r="G8" t="str">
         <f>CONCATENATE("DEFINE QL(",A8,ConfigData!$D$2,") MAXMSGL(",B8,") MAXDEPTH(",C8,") DESCR('",D8,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.SVC.NOTIFY) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.SVC.NOTIFY) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2215,15 +2221,14 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C9">
         <v>100000</v>
       </c>
       <c r="G9" t="str">
         <f>CONCATENATE("DEFINE QL(",A9,ConfigData!$D$2,") MAXMSGL(",B9,") MAXDEPTH(",C9,") DESCR('",D9,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.PUBLISHED.EVENTS.ALL) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.PUBLISHED.EVENTS.ALL) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2231,15 +2236,14 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C10">
         <v>100000</v>
       </c>
       <c r="G10" t="str">
         <f>CONCATENATE("DEFINE QL(",A10,ConfigData!$D$2,") MAXMSGL(",B10,") MAXDEPTH(",C10,") DESCR('",D10,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.SVC.BPMEVENTQ) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.SVC.BPMEVENTQ) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2247,15 +2251,14 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C11">
         <v>100000</v>
       </c>
       <c r="G11" t="str">
         <f>CONCATENATE("DEFINE QL(",A11,ConfigData!$D$2,") MAXMSGL(",B11,") MAXDEPTH(",C11,") DESCR('",D11,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.SVC.STAFFDIR) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.SVC.STAFFDIR) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2263,15 +2266,14 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C12">
         <v>100000</v>
       </c>
       <c r="G12" t="str">
         <f>CONCATENATE("DEFINE QL(",A12,ConfigData!$D$2,") MAXMSGL(",B12,") MAXDEPTH(",C12,") DESCR('",D12,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.SVC.TXRX.MAINTENANCE) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.SVC.TXRX.MAINTENANCE) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2279,15 +2281,14 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C13">
         <v>100000</v>
       </c>
       <c r="G13" t="str">
         <f>CONCATENATE("DEFINE QL(",A13,ConfigData!$D$2,") MAXMSGL(",B13,") MAXDEPTH(",C13,") DESCR('",D13,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.BPM.SERVICE.RESPONSE) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.BPM.SERVICE.RESPONSE) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2295,15 +2296,14 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C14">
         <v>100000</v>
       </c>
       <c r="G14" t="str">
         <f>CONCATENATE("DEFINE QL(",A14,ConfigData!$D$2,") MAXMSGL(",B14,") MAXDEPTH(",C14,") DESCR('",D14,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.BPM.SERVICE.REQUEST) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.BPM.SERVICE.REQUEST) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2311,15 +2311,14 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C15">
         <v>100000</v>
       </c>
       <c r="G15" t="str">
         <f>CONCATENATE("DEFINE QL(",A15,ConfigData!$D$2,") MAXMSGL(",B15,") MAXDEPTH(",C15,") DESCR('",D15,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.SVC.DEFAULT) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.SVC.DEFAULT) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2327,15 +2326,14 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C16">
         <v>100000</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE("DEFINE QL(",A16,ConfigData!$D$2,") MAXMSGL(",B16,") MAXDEPTH(",C16,") DESCR('",D16,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.SVC.SYSINFO) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.SVC.SYSINFO) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2343,15 +2341,14 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C17">
         <v>100000</v>
       </c>
       <c r="G17" t="str">
         <f>CONCATENATE("DEFINE QL(",A17,ConfigData!$D$2,") MAXMSGL(",B17,") MAXDEPTH(",C17,") DESCR('",D17,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.ERROR) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.ERROR) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2374,15 +2371,14 @@
         <v>150</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>104857600</v>
       </c>
       <c r="C19">
         <v>100000</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE("DEFINE QL(",A19,ConfigData!$D$2,") MAXMSGL(",B19,") MAXDEPTH(",C19,") DESCR('",D19,"') BOQNAME(",$A$2,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(BPM4.SVC.REGISTER.LOCAL.REPLY) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(BPM4.SVC.REGISTER.LOCAL.REPLY) MAXMSGL(104857600) MAXDEPTH(100000) DESCR('') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2789,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,9 +3040,43 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16">
+        <f>100*2^20</f>
+        <v>104857600</v>
+      </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A16,ConfigData!$D$2,") MAXMSGL(",B16,") MAXDEPTH(",C16,") DESCR('",D16,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(XLSTOXML.IN) MAXMSGL(104857600) MAXDEPTH(5000) DESCR('Request queue to transform an Excel (XLS) to an XML document') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17">
+        <f>100*2^20</f>
+        <v>104857600</v>
+      </c>
+      <c r="C17">
+        <v>5000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A17,ConfigData!$D$2,") MAXMSGL(",B17,") MAXDEPTH(",C17,") DESCR('",D17,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(XLSTOXML.OUT) MAXMSGL(104857600) MAXDEPTH(5000) DESCR('Response queue to transform an Excel (XLS) to an XML document') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/trunk/EnvironmentConf/DEV.xlsx
+++ b/trunk/EnvironmentConf/DEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="45" windowWidth="14310" windowHeight="14595" tabRatio="546" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="14505" yWindow="105" windowWidth="14310" windowHeight="14535" tabRatio="546" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="327">
   <si>
     <t>Queue Name</t>
   </si>
@@ -958,6 +958,54 @@
   </si>
   <si>
     <t>Request queue to transform an Excel (XLS) to an XML document</t>
+  </si>
+  <si>
+    <t>METERREADINGS.SVC.CRUD</t>
+  </si>
+  <si>
+    <t>CRUD Service for Meter Readings/Carbon Footprint</t>
+  </si>
+  <si>
+    <t>OCP_CRUDService</t>
+  </si>
+  <si>
+    <t>OCP_ErroneousPaymentsCheck</t>
+  </si>
+  <si>
+    <t>OCP_ExportPayClaims</t>
+  </si>
+  <si>
+    <t>OCP_PayrollCutOff</t>
+  </si>
+  <si>
+    <t>On Call Payments</t>
+  </si>
+  <si>
+    <t>Meter Readings</t>
+  </si>
+  <si>
+    <t>MeterReadings_CRUDService</t>
+  </si>
+  <si>
+    <t>METER_READINGS</t>
+  </si>
+  <si>
+    <t>5t3PteamD</t>
+  </si>
+  <si>
+    <t>TENSORNET</t>
+  </si>
+  <si>
+    <t>Tensor Security Events Request</t>
+  </si>
+  <si>
+    <t>Tensor Security Events Response</t>
+  </si>
+  <si>
+    <t>SECURITYEVENTS.SVC.IN</t>
+  </si>
+  <si>
+    <t>SECURITYEVENTS.SVC.OUT</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1158,6 +1206,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1242,7 +1295,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1255,8 +1308,9 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1"/>
@@ -1287,8 +1341,10 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="10" quotePrefix="1"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="12"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
+    <cellStyle name="Accent1" xfId="12" builtinId="29"/>
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Bad" xfId="11" builtinId="27"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1803,10 +1859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,6 +2135,50 @@
         <v>mqsicvp brk0002d -n STEP_SS</v>
       </c>
       <c r="H24" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A26," -u ",B26," -p ",C26)</f>
+        <v>mqsisetdbparms brk0002d -n METER_READINGS -u step_userd -p Stepuserd999</v>
+      </c>
+      <c r="F26" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A26)</f>
+        <v>mqsicvp brk0002d -n METER_READINGS</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A27," -u ",B27," -p ",C27)</f>
+        <v>mqsisetdbparms brk0002d -n TENSORNET -u step_userd -p 5t3PteamD</v>
+      </c>
+      <c r="F27" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A27)</f>
+        <v>mqsicvp brk0002d -n TENSORNET</v>
+      </c>
+      <c r="H27" s="22" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2785,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D17"/>
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,6 +3178,62 @@
         <v>DEFINE QL(XLSTOXML.OUT) MAXMSGL(104857600) MAXDEPTH(5000) DESCR('Response queue to transform an Excel (XLS) to an XML document') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C19">
+        <v>5000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>312</v>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A19,ConfigData!$D$2,") MAXMSGL(",B19,") MAXDEPTH(",C19,") DESCR('",D19,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(METERREADINGS.SVC.CRUD) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('CRUD Service for Meter Readings/Carbon Footprint') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21">
+        <v>4096</v>
+      </c>
+      <c r="C21">
+        <v>5000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>323</v>
+      </c>
+      <c r="E21" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A21,ConfigData!$D$2,") MAXMSGL(",B21,") MAXDEPTH(",C21,") DESCR('",D21,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(SECURITYEVENTS.SVC.IN) MAXMSGL(4096) MAXDEPTH(5000) DESCR('Tensor Security Events Request') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C22">
+        <v>5000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>324</v>
+      </c>
+      <c r="E22" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A22,ConfigData!$D$2,") MAXMSGL(",B22,") MAXDEPTH(",C22,") DESCR('",D22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(SECURITYEVENTS.SVC.OUT) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('Tensor Security Events Response') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3087,11 +3243,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3975,6 +4131,236 @@
       <c r="G44" s="5" t="str">
         <f>CONCATENATE("INSERT INTO ",ConfigData!$D$9,".",ConfigData!$B$10," (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (",A44,",'",B44,"','",C44,"','",D44,"','",E44,"');")</f>
         <v>INSERT INTO WMBADMIN.BPM4ROUTING (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (1,'UKFF4_Contact','BPM','UKFF.BPM.SERVICE.RESPONSE','D');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>5</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="5" t="str">
+        <f>CONCATENATE("INSERT INTO ",ConfigData!$D$9,".",ConfigData!$B$10," (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (",A46,",'",B46,"','",C46,"','",D46,"','",E46,"');")</f>
+        <v>INSERT INTO WMBADMIN.BPM4ROUTING (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (5,'BPM','OCP_CRUDService','OCP.SVC.CRUD','D');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>5</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f>C46</f>
+        <v>OCP_CRUDService</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f>B46</f>
+        <v>BPM</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="5" t="str">
+        <f>CONCATENATE("INSERT INTO ",ConfigData!$D$9,".",ConfigData!$B$10," (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (",A47,",'",B47,"','",C47,"','",D47,"','",E47,"');")</f>
+        <v>INSERT INTO WMBADMIN.BPM4ROUTING (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (5,'OCP_CRUDService','BPM','UKFF.BPM.SERVICE.RESPONSE','D');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="5" t="str">
+        <f>CONCATENATE("INSERT INTO ",ConfigData!$D$9,".",ConfigData!$B$10," (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (",A48,",'",B48,"','",C48,"','",D48,"','",E48,"');")</f>
+        <v>INSERT INTO WMBADMIN.BPM4ROUTING (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (5,'BPM','OCP_ErroneousPaymentsCheck','OCP.SVC.ERRPAYCHECK','D');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>5</v>
+      </c>
+      <c r="B49" s="4" t="str">
+        <f>C48</f>
+        <v>OCP_ErroneousPaymentsCheck</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f>B48</f>
+        <v>BPM</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="5" t="str">
+        <f>CONCATENATE("INSERT INTO ",ConfigData!$D$9,".",ConfigData!$B$10," (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (",A49,",'",B49,"','",C49,"','",D49,"','",E49,"');")</f>
+        <v>INSERT INTO WMBADMIN.BPM4ROUTING (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (5,'OCP_ErroneousPaymentsCheck','BPM','UKFF.BPM.SERVICE.RESPONSE','D');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>5</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="5" t="str">
+        <f>CONCATENATE("INSERT INTO ",ConfigData!$D$9,".",ConfigData!$B$10," (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (",A50,",'",B50,"','",C50,"','",D50,"','",E50,"');")</f>
+        <v>INSERT INTO WMBADMIN.BPM4ROUTING (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (5,'BPM','OCP_ExportPayClaims','OCP.SVC.EXPORTPAYCLAIMS','D');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>5</v>
+      </c>
+      <c r="B51" s="4" t="str">
+        <f>C50</f>
+        <v>OCP_ExportPayClaims</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f>B50</f>
+        <v>BPM</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="5" t="str">
+        <f>CONCATENATE("INSERT INTO ",ConfigData!$D$9,".",ConfigData!$B$10," (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (",A51,",'",B51,"','",C51,"','",D51,"','",E51,"');")</f>
+        <v>INSERT INTO WMBADMIN.BPM4ROUTING (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (5,'OCP_ExportPayClaims','BPM','UKFF.BPM.SERVICE.RESPONSE','D');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>5</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="5" t="str">
+        <f>CONCATENATE("INSERT INTO ",ConfigData!$D$9,".",ConfigData!$B$10," (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (",A52,",'",B52,"','",C52,"','",D52,"','",E52,"');")</f>
+        <v>INSERT INTO WMBADMIN.BPM4ROUTING (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (5,'BPM','OCP_PayrollCutOff','OCP.SVC.PAYROLLCUTOFF','D');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>5</v>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f>C52</f>
+        <v>OCP_PayrollCutOff</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f>B52</f>
+        <v>BPM</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="5" t="str">
+        <f>CONCATENATE("INSERT INTO ",ConfigData!$D$9,".",ConfigData!$B$10," (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (",A53,",'",B53,"','",C53,"','",D53,"','",E53,"');")</f>
+        <v>INSERT INTO WMBADMIN.BPM4ROUTING (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (5,'OCP_PayrollCutOff','BPM','UKFF.BPM.SERVICE.RESPONSE','D');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>319</v>
+      </c>
+      <c r="D55" t="s">
+        <v>311</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="5" t="str">
+        <f>CONCATENATE("INSERT INTO ",ConfigData!$D$9,".",ConfigData!$B$10," (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (",A55,",'",B55,"','",C55,"','",D55,"','",E55,"');")</f>
+        <v>INSERT INTO WMBADMIN.BPM4ROUTING (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (5,'BPM','MeterReadings_CRUDService','METERREADINGS.SVC.CRUD','D');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>5</v>
+      </c>
+      <c r="B56" t="str">
+        <f>C55</f>
+        <v>MeterReadings_CRUDService</v>
+      </c>
+      <c r="C56" t="str">
+        <f>B55</f>
+        <v>BPM</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="5" t="str">
+        <f>CONCATENATE("INSERT INTO ",ConfigData!$D$9,".",ConfigData!$B$10," (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (",A56,",'",B56,"','",C56,"','",D56,"','",E56,"');")</f>
+        <v>INSERT INTO WMBADMIN.BPM4ROUTING (PRIORITY,SOURCE,TARGET,PHYTARGET,ENVIRONMENT) VALUES (5,'MeterReadings_CRUDService','BPM','UKFF.BPM.SERVICE.RESPONSE','D');</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/EnvironmentConf/DEV.xlsx
+++ b/trunk/EnvironmentConf/DEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="105" windowWidth="14310" windowHeight="14535" tabRatio="546" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="14505" yWindow="105" windowWidth="14310" windowHeight="14535" tabRatio="546" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="333">
   <si>
     <t>Queue Name</t>
   </si>
@@ -1006,6 +1006,24 @@
   </si>
   <si>
     <t>SECURITYEVENTS.SVC.OUT</t>
+  </si>
+  <si>
+    <t>Trigger to validate meter readings.</t>
+  </si>
+  <si>
+    <t>LOOKUP.SVC.IN</t>
+  </si>
+  <si>
+    <t>LOOKUP.SVC.OUT</t>
+  </si>
+  <si>
+    <t>Lookup Services Request</t>
+  </si>
+  <si>
+    <t>Lookup Services Response</t>
+  </si>
+  <si>
+    <t>Meter Readings/Carbon Footprint</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1328,7 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1"/>
@@ -1342,6 +1360,7 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="6" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Accent1" xfId="12" builtinId="29"/>
@@ -2885,10 +2904,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3232,6 +3251,43 @@
       <c r="E22" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A22,ConfigData!$D$2,") MAXMSGL(",B22,") MAXDEPTH(",C22,") DESCR('",D22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(SECURITYEVENTS.SVC.OUT) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('Tensor Security Events Response') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24">
+        <v>4096</v>
+      </c>
+      <c r="C24">
+        <v>5000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E24" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A24,ConfigData!$D$2,") MAXMSGL(",B24,") MAXDEPTH(",C24,") DESCR('",D24,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(LOOKUP.SVC.IN) MAXMSGL(4096) MAXDEPTH(5000) DESCR('Lookup Services Request') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C25">
+        <v>5000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A25,ConfigData!$D$2,") MAXMSGL(",B25,") MAXDEPTH(",C25,") DESCR('",D25,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(LOOKUP.SVC.OUT) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('Lookup Services Response') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
   </sheetData>
@@ -4402,8 +4458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4567,7 +4623,7 @@
         <v>114</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f t="shared" ref="C8:C18" si="0">IF(NOT(ISBLANK(B8)),CONCATENATE(A8,".",SUBSTITUTE(UPPER(B8),"-","")),"")</f>
+        <f t="shared" ref="C8:C20" si="0">IF(NOT(ISBLANK(B8)),CONCATENATE(A8,".",SUBSTITUTE(UPPER(B8),"-","")),"")</f>
         <v>TRG.EC185528119388BCE040007F01004D73</v>
       </c>
       <c r="D8" s="7">
@@ -4691,20 +4747,24 @@
         <v>DEFINE QL(TRG.F3D9AACA7497D170E040007F0100653C) MAXMSGL(4096) MAXDEPTH(1) DESCR('Received task notification email.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="7" t="str">
+    <row r="12" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H12" s="7" t="str">
+      <c r="H12" s="27" t="str">
         <f>IF(NOT(ISBLANK(C12)),CONCATENATE("DEFINE QL(",C12,ConfigData!$D$2,") MAXMSGL(",E12,") MAXDEPTH(",F12,") DESCR('",G12,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
         <v/>
       </c>
@@ -4864,64 +4924,57 @@
         <v>DEFINE QL(TRG.33FF6D4439A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to publish data from the STATSNX schema.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="7" t="str">
+    <row r="19" spans="1:8" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F19" t="str">
+      <c r="F19" s="15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H19" s="7" t="str">
+      <c r="H19" s="27" t="str">
         <f>IF(NOT(ISBLANK(C19)),CONCATENATE("DEFINE QL(",C19,ConfigData!$D$2,") MAXMSGL(",E19,") MAXDEPTH(",F19,") DESCR('",G19,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="7" t="str">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>TRG.33FF6DC639A611E4BACA0A5223B90000</v>
+      </c>
+      <c r="D20" s="7">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E20" t="str">
+        <v>36</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F20" t="str">
+        <v>4096</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>327</v>
       </c>
       <c r="H20" s="7" t="str">
         <f>IF(NOT(ISBLANK(C20)),CONCATENATE("DEFINE QL(",C20,ConfigData!$D$2,") MAXMSGL(",E20,") MAXDEPTH(",F20,") DESCR('",G20,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H21" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C21)),CONCATENATE("DEFINE QL(",C21,ConfigData!$D$2,") MAXMSGL(",E21,") MAXDEPTH(",F21,") DESCR('",G21,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v/>
+        <v>DEFINE QL(TRG.33FF6DC639A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to validate meter readings.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4931,21 +4984,21 @@
       <c r="B22" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H22" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C22)),CONCATENATE("DEFINE QL(",C22,ConfigData!$D$2,") MAXMSGL(",E22,") MAXDEPTH(",F22,") DESCR('",G22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v/>
+      <c r="D22" s="7" t="e">
+        <f>IF(NOT(ISBLANK(#REF!)),LEN(#REF!),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E22">
+        <f>IF(NOT(ISBLANK(#REF!)),4*2^10,"")</f>
+        <v>4096</v>
+      </c>
+      <c r="F22">
+        <f>IF(NOT(ISBLANK(#REF!)),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="e">
+        <f>IF(NOT(ISBLANK(#REF!)),CONCATENATE("DEFINE QL(",#REF!,ConfigData!$D$2,") MAXMSGL(",E22,") MAXDEPTH(",F22,") DESCR('",G22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">

--- a/trunk/EnvironmentConf/DEV.xlsx
+++ b/trunk/EnvironmentConf/DEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="105" windowWidth="14310" windowHeight="14535" tabRatio="546" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="14505" yWindow="105" windowWidth="14310" windowHeight="14535" tabRatio="636" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="ManagedFileTransfer" sheetId="10" r:id="rId10"/>
     <sheet name="Publications" sheetId="11" r:id="rId11"/>
     <sheet name="MQAut" sheetId="12" r:id="rId12"/>
+    <sheet name="MBRECORD" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="385">
   <si>
     <t>Queue Name</t>
   </si>
@@ -1024,13 +1025,169 @@
   </si>
   <si>
     <t>Meter Readings/Carbon Footprint</t>
+  </si>
+  <si>
+    <t>Incident Service</t>
+  </si>
+  <si>
+    <t>The following subscriber feeds the queue that in turn will generate UKFF_INCIDENT requests.</t>
+  </si>
+  <si>
+    <t>ywzv</t>
+  </si>
+  <si>
+    <t>P6HBSAP</t>
+  </si>
+  <si>
+    <t>PERF</t>
+  </si>
+  <si>
+    <t>mqsichangeproperties brk0002d -b webadmin -o HTTPConnector -n port -v 4414</t>
+  </si>
+  <si>
+    <t>mqsireportproperties brk0002d -b webadmin -o HTTPConnector -a</t>
+  </si>
+  <si>
+    <t>mqsichangeproperties brk0002d -b webadmin -o server -n enabled,enableSSL -v true,false</t>
+  </si>
+  <si>
+    <t>mqsireportproperties brk0002d -b webadmin -o server -a</t>
+  </si>
+  <si>
+    <t>mqsistop brk0002d</t>
+  </si>
+  <si>
+    <t>mqsistart brk0002d</t>
+  </si>
+  <si>
+    <t>mqsicvp brk0002d -n MBRECORD</t>
+  </si>
+  <si>
+    <t>MBRECORD</t>
+  </si>
+  <si>
+    <t>GRANT DELETE ON TABLE DB2INST1.WMB_BINARY_DATA TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT INSERT ON TABLE DB2INST1.WMB_BINARY_DATA TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT SELECT ON TABLE DB2INST1.WMB_BINARY_DATA TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT UPDATE ON TABLE DB2INST1.WMB_BINARY_DATA TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT DELETE ON TABLE DB2INST1.WMB_EVENT_FIELDS TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT INSERT ON TABLE DB2INST1.WMB_EVENT_FIELDS TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT SELECT ON TABLE DB2INST1.WMB_EVENT_FIELDS TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT UPDATE ON TABLE DB2INST1.WMB_EVENT_FIELDS TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT DELETE ON TABLE DB2INST1.WMB_EVENT_TYPES TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT INSERT ON TABLE DB2INST1.WMB_EVENT_TYPES TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT SELECT ON TABLE DB2INST1.WMB_EVENT_TYPES TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT UPDATE ON TABLE DB2INST1.WMB_EVENT_TYPES TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT DELETE ON TABLE DB2INST1.WMB_MSGS TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT INSERT ON TABLE DB2INST1.WMB_MSGS TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT SELECT ON TABLE DB2INST1.WMB_MSGS TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>GRANT UPDATE ON TABLE DB2INST1.WMB_MSGS TO USER WMBADMIN;</t>
+  </si>
+  <si>
+    <t>db2 catalog tcpip node MBRECORD remote FGC0003D-INTER server 50000</t>
+  </si>
+  <si>
+    <t>db2 catalog database MBRECORD at node MBRECORD</t>
+  </si>
+  <si>
+    <t>db2 terminate</t>
+  </si>
+  <si>
+    <t>Catalog the database</t>
+  </si>
+  <si>
+    <t>db2 list database directory</t>
+  </si>
+  <si>
+    <t>http://db2commerce.com/2011/04/14/how-to-catalog-a-db2-database/</t>
+  </si>
+  <si>
+    <t>http://www.ibm.com/developerworks/websphere/tutorials/1212_storey/</t>
+  </si>
+  <si>
+    <t>Getting started with record and replay in WebSphere Message Broker</t>
+  </si>
+  <si>
+    <t>mqsichangeflowmonitoring brk0002d -e bpm4 -k BPM4_01_MF -f bpm4.BPM4_TxRx -c active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mqsireportflowmonitoring brk0002d -e bpm4 -k BPM4_01_MF -f bpm4.BPM4_TxRx </t>
+  </si>
+  <si>
+    <t>Trigger to perform sync operation between HR system and UKFF</t>
+  </si>
+  <si>
+    <t>Trigger to perform publish operation from Active Directory.</t>
+  </si>
+  <si>
+    <t>STEP_OCP</t>
+  </si>
+  <si>
+    <t>IRSPLUS</t>
+  </si>
+  <si>
+    <t>/FGC/ACTIVEDIRECTORY/CHANGES</t>
+  </si>
+  <si>
+    <t>AD.CHANGES</t>
+  </si>
+  <si>
+    <t>Active Directory Changes</t>
+  </si>
+  <si>
+    <t>Active Directory Changes Subscriber for UKFF_Staff</t>
+  </si>
+  <si>
+    <t>AD.CHANGES.UKFF_STAFF</t>
+  </si>
+  <si>
+    <t>Active Directory Changes for UKFF_Staff</t>
+  </si>
+  <si>
+    <t>Active Directory Changes Subscriber for ResourceLink</t>
+  </si>
+  <si>
+    <t>AD.CHANGES.RESOURCELINK</t>
+  </si>
+  <si>
+    <t>Active Directory Changes for ResourceLink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,6 +1325,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1232,7 +1411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1312,8 +1491,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1327,8 +1521,11 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1"/>
@@ -1361,17 +1558,31 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="12"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="14" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="16">
     <cellStyle name="Accent1" xfId="12" builtinId="29"/>
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Bad" xfId="11" builtinId="27"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Explanatory Text" xfId="14" builtinId="53"/>
     <cellStyle name="Good" xfId="9" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="4" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="5" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="6" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="13" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8"/>
     <cellStyle name="Input" xfId="10" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_BPM4ROUTING" xfId="7"/>
@@ -1677,7 +1888,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,12 +2087,197 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F31" sqref="F31:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,6 +2461,25 @@
         <v>mqsicvp brk0002d -n DM_CADM</v>
       </c>
     </row>
+    <row r="12" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A12," -u ",B12," -p ",C12)</f>
+        <v>mqsisetdbparms brk0002d -n PERF -u ywzv -p P6HBSAP</v>
+      </c>
+      <c r="F12" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A12)</f>
+        <v>mqsicvp brk0002d -n PERF</v>
+      </c>
+    </row>
     <row r="16" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>157</v>
@@ -2201,9 +2616,73 @@
         <v>169</v>
       </c>
     </row>
+    <row r="29" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A29," -u ",B29," -p ",C29)</f>
+        <v>mqsisetdbparms brk0002d -n MBRECORD -u wmbadmin -p d5FZg2E9i9dGnChE4w1q</v>
+      </c>
+      <c r="F29" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A29)</f>
+        <v>mqsicvp brk0002d -n MBRECORD</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A31," -u ",B31," -p ",C31)</f>
+        <v>mqsisetdbparms brk0002d -n STEP_OCP -u step_userd -p Stepuserd999</v>
+      </c>
+      <c r="F31" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A31)</f>
+        <v>mqsicvp brk0002d -n STEP_OCP</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A32," -u ",B32," -p ",C32)</f>
+        <v>mqsisetdbparms brk0002d -n IRSPLUS -u step_userd -p Stepuserd999</v>
+      </c>
+      <c r="F32" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A32)</f>
+        <v>mqsicvp brk0002d -n IRSPLUS</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2529,13 +3008,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,7 +3050,7 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B12" si="0">4*2^20</f>
+        <f t="shared" ref="B3:B20" si="0">4*2^20</f>
         <v>4194304</v>
       </c>
       <c r="C3">
@@ -2893,6 +3372,29 @@
       <c r="F18" s="7" t="str">
         <f t="shared" ref="F18" si="3">CONCATENATE("DELETE QLOCAL(",A18,") PURGE")</f>
         <v>DELETE QLOCAL(UKFF4.SVC.RECRUITMENT) PURGE</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>4194304</v>
+      </c>
+      <c r="C20">
+        <v>5000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E20" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A20,ConfigData!$D$2,") MAXMSGL(",B20,") MAXDEPTH(",C20,") DESCR('",D20,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(UKFF.SVC.INCIDENT) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('Incident Service') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f t="shared" ref="F20" si="4">CONCATENATE("DELETE QLOCAL(",A20,") PURGE")</f>
+        <v>DELETE QLOCAL(UKFF.SVC.INCIDENT) PURGE</v>
       </c>
     </row>
   </sheetData>
@@ -2904,10 +3406,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,6 +3790,62 @@
       <c r="E25" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A25,ConfigData!$D$2,") MAXMSGL(",B25,") MAXDEPTH(",C25,") DESCR('",D25,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(LOOKUP.SVC.OUT) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('Lookup Services Response') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27">
+        <v>4096</v>
+      </c>
+      <c r="C27">
+        <v>5000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E27" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A27,ConfigData!$D$2,") MAXMSGL(",B27,") MAXDEPTH(",C27,") DESCR('",D27,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(AD.CHANGES) MAXMSGL(4096) MAXDEPTH(5000) DESCR('Active Directory Changes') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C28">
+        <v>5000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>381</v>
+      </c>
+      <c r="E28" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A28,ConfigData!$D$2,") MAXMSGL(",B28,") MAXDEPTH(",C28,") DESCR('",D28,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(AD.CHANGES.UKFF_STAFF) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('Active Directory Changes for UKFF_Staff') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B29">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C29">
+        <v>5000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>384</v>
+      </c>
+      <c r="E29" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A29,ConfigData!$D$2,") MAXMSGL(",B29,") MAXDEPTH(",C29,") DESCR('",D29,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(AD.CHANGES.RESOURCELINK) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('Active Directory Changes for ResourceLink') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
   </sheetData>
@@ -4458,8 +5016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4623,7 +5181,7 @@
         <v>114</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f t="shared" ref="C8:C20" si="0">IF(NOT(ISBLANK(B8)),CONCATENATE(A8,".",SUBSTITUTE(UPPER(B8),"-","")),"")</f>
+        <f t="shared" ref="C8:C22" si="0">IF(NOT(ISBLANK(B8)),CONCATENATE(A8,".",SUBSTITUTE(UPPER(B8),"-","")),"")</f>
         <v>TRG.EC185528119388BCE040007F01004D73</v>
       </c>
       <c r="D8" s="7">
@@ -4984,9 +5542,13 @@
       <c r="B22" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="7" t="e">
-        <f>IF(NOT(ISBLANK(#REF!)),LEN(#REF!),"")</f>
-        <v>#REF!</v>
+      <c r="C22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>TRG.33FF6E3E39A611E4BACA0A5223B90000</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="E22">
         <f>IF(NOT(ISBLANK(#REF!)),4*2^10,"")</f>
@@ -4996,9 +5558,12 @@
         <f>IF(NOT(ISBLANK(#REF!)),1,"")</f>
         <v>1</v>
       </c>
-      <c r="H22" s="7" t="e">
-        <f>IF(NOT(ISBLANK(#REF!)),CONCATENATE("DEFINE QL(",#REF!,ConfigData!$D$2,") MAXMSGL(",E22,") MAXDEPTH(",F22,") DESCR('",G22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>#REF!</v>
+      <c r="G22" t="s">
+        <v>372</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C22)),CONCATENATE("DEFINE QL(",C22,ConfigData!$D$2,") MAXMSGL(",E22,") MAXDEPTH(",F22,") DESCR('",G22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.33FF6E3E39A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform sync operation between HR system and UKFF') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5008,21 +5573,28 @@
       <c r="B23" t="s">
         <v>200</v>
       </c>
-      <c r="D23" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C23" s="7" t="str">
+        <f t="shared" ref="C23" si="4">IF(NOT(ISBLANK(B23)),CONCATENATE(A23,".",SUBSTITUTE(UPPER(B23),"-","")),"")</f>
+        <v>TRG.33FF6EB639A611E4BACA0A5223B90000</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" ref="D23" si="5">IF(NOT(ISBLANK(C23)),LEN(C23),"")</f>
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <f>IF(NOT(ISBLANK(#REF!)),4*2^10,"")</f>
+        <v>4096</v>
+      </c>
+      <c r="F23">
+        <f>IF(NOT(ISBLANK(#REF!)),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>373</v>
       </c>
       <c r="H23" s="7" t="str">
         <f>IF(NOT(ISBLANK(C23)),CONCATENATE("DEFINE QL(",C23,ConfigData!$D$2,") MAXMSGL(",E23,") MAXDEPTH(",F23,") DESCR('",G23,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v/>
+        <v>DEFINE QL(TRG.33FF6EB639A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform publish operation from Active Directory.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6189,15 +6761,15 @@
         <v>250</v>
       </c>
       <c r="D73" s="7" t="str">
-        <f t="shared" ref="D73:D118" si="4">IF(NOT(ISBLANK(C73)),LEN(C73),"")</f>
+        <f t="shared" ref="D73:D118" si="6">IF(NOT(ISBLANK(C73)),LEN(C73),"")</f>
         <v/>
       </c>
       <c r="E73" t="str">
-        <f t="shared" ref="E73:E118" si="5">IF(NOT(ISBLANK(C73)),4*2^10,"")</f>
+        <f t="shared" ref="E73:E118" si="7">IF(NOT(ISBLANK(C73)),4*2^10,"")</f>
         <v/>
       </c>
       <c r="F73" t="str">
-        <f t="shared" ref="F73:F118" si="6">IF(NOT(ISBLANK(C73)),1,"")</f>
+        <f t="shared" ref="F73:F118" si="8">IF(NOT(ISBLANK(C73)),1,"")</f>
         <v/>
       </c>
     </row>
@@ -6209,15 +6781,15 @@
         <v>251</v>
       </c>
       <c r="D74" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6229,15 +6801,15 @@
         <v>252</v>
       </c>
       <c r="D75" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6249,15 +6821,15 @@
         <v>253</v>
       </c>
       <c r="D76" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6269,15 +6841,15 @@
         <v>254</v>
       </c>
       <c r="D77" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6289,15 +6861,15 @@
         <v>255</v>
       </c>
       <c r="D78" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6309,15 +6881,15 @@
         <v>256</v>
       </c>
       <c r="D79" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6329,15 +6901,15 @@
         <v>257</v>
       </c>
       <c r="D80" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6349,15 +6921,15 @@
         <v>258</v>
       </c>
       <c r="D81" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6369,15 +6941,15 @@
         <v>259</v>
       </c>
       <c r="D82" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6389,15 +6961,15 @@
         <v>260</v>
       </c>
       <c r="D83" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6409,15 +6981,15 @@
         <v>261</v>
       </c>
       <c r="D84" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6429,15 +7001,15 @@
         <v>262</v>
       </c>
       <c r="D85" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6449,15 +7021,15 @@
         <v>263</v>
       </c>
       <c r="D86" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6469,15 +7041,15 @@
         <v>264</v>
       </c>
       <c r="D87" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6489,15 +7061,15 @@
         <v>265</v>
       </c>
       <c r="D88" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6509,15 +7081,15 @@
         <v>266</v>
       </c>
       <c r="D89" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6529,15 +7101,15 @@
         <v>267</v>
       </c>
       <c r="D90" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6549,15 +7121,15 @@
         <v>268</v>
       </c>
       <c r="D91" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6569,15 +7141,15 @@
         <v>269</v>
       </c>
       <c r="D92" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6589,15 +7161,15 @@
         <v>270</v>
       </c>
       <c r="D93" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6609,15 +7181,15 @@
         <v>271</v>
       </c>
       <c r="D94" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6629,15 +7201,15 @@
         <v>272</v>
       </c>
       <c r="D95" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6649,15 +7221,15 @@
         <v>273</v>
       </c>
       <c r="D96" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6669,15 +7241,15 @@
         <v>274</v>
       </c>
       <c r="D97" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6689,15 +7261,15 @@
         <v>275</v>
       </c>
       <c r="D98" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6709,15 +7281,15 @@
         <v>276</v>
       </c>
       <c r="D99" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6729,15 +7301,15 @@
         <v>277</v>
       </c>
       <c r="D100" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6749,15 +7321,15 @@
         <v>278</v>
       </c>
       <c r="D101" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6769,15 +7341,15 @@
         <v>279</v>
       </c>
       <c r="D102" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6789,15 +7361,15 @@
         <v>280</v>
       </c>
       <c r="D103" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6809,15 +7381,15 @@
         <v>281</v>
       </c>
       <c r="D104" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6829,15 +7401,15 @@
         <v>282</v>
       </c>
       <c r="D105" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6849,15 +7421,15 @@
         <v>283</v>
       </c>
       <c r="D106" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6869,15 +7441,15 @@
         <v>284</v>
       </c>
       <c r="D107" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6889,15 +7461,15 @@
         <v>285</v>
       </c>
       <c r="D108" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6909,15 +7481,15 @@
         <v>286</v>
       </c>
       <c r="D109" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6929,15 +7501,15 @@
         <v>287</v>
       </c>
       <c r="D110" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6949,15 +7521,15 @@
         <v>288</v>
       </c>
       <c r="D111" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6969,15 +7541,15 @@
         <v>289</v>
       </c>
       <c r="D112" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6989,15 +7561,15 @@
         <v>290</v>
       </c>
       <c r="D113" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7009,15 +7581,15 @@
         <v>291</v>
       </c>
       <c r="D114" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7029,15 +7601,15 @@
         <v>292</v>
       </c>
       <c r="D115" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7049,15 +7621,15 @@
         <v>293</v>
       </c>
       <c r="D116" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7069,15 +7641,15 @@
         <v>294</v>
       </c>
       <c r="D117" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7089,15 +7661,15 @@
         <v>295</v>
       </c>
       <c r="D118" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7110,17 +7682,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="170.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7139,17 +7711,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="25" t="str">
         <f>CONCATENATE("DEFINE SUB('",A3,"') TOPICSTR('",UPPER(B3),"') DEST('",C3,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
         <v>DEFINE SUB('Non-Emergency Incident Reporting') TOPICSTR('/FGC/MOBILISING/TABLE/STS_INCIDENTS') DEST('FGC.INCIDENTREP') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
       </c>
@@ -7169,19 +7741,54 @@
         <v>DEFINE SUB('On-Call Incident Payments ') TOPICSTR('/FGC/MOBILISING/TABLE/#') DEST('OCP.INCIDENTS.SUB') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="6" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B7" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C7" s="22" t="s">
         <v>193</v>
+      </c>
+      <c r="D7" s="22" t="str">
+        <f>CONCATENATE("DEFINE SUB('",A7,"') TOPICSTR('",UPPER(B7),"') DEST('",C7,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
+        <v>DEFINE SUB('STATSNX Subscriber') TOPICSTR('/FGC/MOBILISING/TABLE/#') DEST('STATSNX.SUB') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" t="s">
+        <v>380</v>
       </c>
       <c r="D9" s="22" t="str">
         <f>CONCATENATE("DEFINE SUB('",A9,"') TOPICSTR('",UPPER(B9),"') DEST('",C9,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
-        <v>DEFINE SUB('STATSNX Subscriber') TOPICSTR('/FGC/MOBILISING/TABLE/#') DEST('STATSNX.SUB') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+        <v>DEFINE SUB('Active Directory Changes Subscriber for UKFF_Staff') TOPICSTR('/FGC/ACTIVEDIRECTORY/CHANGES') DEST('AD.CHANGES.UKFF_STAFF') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" t="s">
+        <v>383</v>
+      </c>
+      <c r="D10" s="22" t="str">
+        <f>CONCATENATE("DEFINE SUB('",A10,"') TOPICSTR('",UPPER(B10),"') DEST('",C10,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
+        <v>DEFINE SUB('Active Directory Changes Subscriber for ResourceLink') TOPICSTR('/FGC/ACTIVEDIRECTORY/CHANGES') DEST('AD.CHANGES.RESOURCELINK') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/EnvironmentConf/DEV.xlsx
+++ b/trunk/EnvironmentConf/DEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="105" windowWidth="14310" windowHeight="14535" tabRatio="636" activeTab="8"/>
+    <workbookView xWindow="-15" yWindow="7290" windowWidth="28830" windowHeight="7350" tabRatio="636" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Publications" sheetId="11" r:id="rId11"/>
     <sheet name="MQAut" sheetId="12" r:id="rId12"/>
     <sheet name="MBRECORD" sheetId="13" r:id="rId13"/>
+    <sheet name="Command Line" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="409">
   <si>
     <t>Queue Name</t>
   </si>
@@ -1181,13 +1182,85 @@
   </si>
   <si>
     <t>Active Directory Changes for ResourceLink</t>
+  </si>
+  <si>
+    <t>Trigger to poll ResourceLink for staff changes.</t>
+  </si>
+  <si>
+    <t>RESOURCELINK.CHANGES</t>
+  </si>
+  <si>
+    <t>ResourceLink Changes</t>
+  </si>
+  <si>
+    <t>GartanRDS</t>
+  </si>
+  <si>
+    <t>AUDITLOG</t>
+  </si>
+  <si>
+    <t>Audit Logging Queue</t>
+  </si>
+  <si>
+    <t>Event Monitoring</t>
+  </si>
+  <si>
+    <t>$SYS/Broker/#/Monitoring/#/#</t>
+  </si>
+  <si>
+    <t>EVENTMONITORING</t>
+  </si>
+  <si>
+    <t>Event Monitoring Queue</t>
+  </si>
+  <si>
+    <t>backgroundservices</t>
+  </si>
+  <si>
+    <t>bpm4</t>
+  </si>
+  <si>
+    <t>debugger</t>
+  </si>
+  <si>
+    <t>fgc</t>
+  </si>
+  <si>
+    <t>meterreadings</t>
+  </si>
+  <si>
+    <t>oncallpayments</t>
+  </si>
+  <si>
+    <t>remsdaq</t>
+  </si>
+  <si>
+    <t>ukffv1</t>
+  </si>
+  <si>
+    <t>ukffv4</t>
+  </si>
+  <si>
+    <t>ukffwsg</t>
+  </si>
+  <si>
+    <t>Execution Groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jvmDebugPort </t>
+  </si>
+  <si>
+    <t>Event Monitoring On</t>
+  </si>
+  <si>
+    <t>Event Monitoring Off</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,6 +1419,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1525,7 +1604,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1"/>
@@ -1568,6 +1647,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1888,7 +1970,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,6 +2027,9 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+    </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -2272,12 +2357,260 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A2," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e backgroundservices -j -c active</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A2," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e backgroundservices -j -c inactive</v>
+      </c>
+      <c r="D2">
+        <v>65000</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A2," -o ComIbmJVMManager -n jvmDebugPort -v ",D2)</f>
+        <v>mqsichangeproperties brk0002d -e backgroundservices -o ComIbmJVMManager -n jvmDebugPort -v 65000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" t="str">
+        <f>CONCATENATE("#mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A3," -j -c active")</f>
+        <v>#mqsichangeflowmonitoring brk0002d -e bpm4 -j -c active</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE("#mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A3," -j -c inactive")</f>
+        <v>#mqsichangeflowmonitoring brk0002d -e bpm4 -j -c inactive</v>
+      </c>
+      <c r="D3">
+        <f>D2+1</f>
+        <v>65001</v>
+      </c>
+      <c r="E3" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A3," -o ComIbmJVMManager -n jvmDebugPort -v ",D3)</f>
+        <v>mqsichangeproperties brk0002d -e bpm4 -o ComIbmJVMManager -n jvmDebugPort -v 65001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A4," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e debugger -j -c active</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A4," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e debugger -j -c inactive</v>
+      </c>
+      <c r="D4">
+        <f>D3+1</f>
+        <v>65002</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A4," -o ComIbmJVMManager -n jvmDebugPort -v ",D4)</f>
+        <v>mqsichangeproperties brk0002d -e debugger -o ComIbmJVMManager -n jvmDebugPort -v 65002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A5," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e fgc -j -c active</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A5," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e fgc -j -c inactive</v>
+      </c>
+      <c r="D5">
+        <f>D4+1</f>
+        <v>65003</v>
+      </c>
+      <c r="E5" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A5," -o ComIbmJVMManager -n jvmDebugPort -v ",D5)</f>
+        <v>mqsichangeproperties brk0002d -e fgc -o ComIbmJVMManager -n jvmDebugPort -v 65003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A6," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e meterreadings -j -c active</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A6," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e meterreadings -j -c inactive</v>
+      </c>
+      <c r="D6">
+        <f>D5+1</f>
+        <v>65004</v>
+      </c>
+      <c r="E6" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A6," -o ComIbmJVMManager -n jvmDebugPort -v ",D6)</f>
+        <v>mqsichangeproperties brk0002d -e meterreadings -o ComIbmJVMManager -n jvmDebugPort -v 65004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A7," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e oncallpayments -j -c active</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A7," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e oncallpayments -j -c inactive</v>
+      </c>
+      <c r="D7">
+        <f>D6+1</f>
+        <v>65005</v>
+      </c>
+      <c r="E7" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A7," -o ComIbmJVMManager -n jvmDebugPort -v ",D7)</f>
+        <v>mqsichangeproperties brk0002d -e oncallpayments -o ComIbmJVMManager -n jvmDebugPort -v 65005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A8," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e remsdaq -j -c active</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A8," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e remsdaq -j -c inactive</v>
+      </c>
+      <c r="D8">
+        <f>D7+1</f>
+        <v>65006</v>
+      </c>
+      <c r="E8" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A8," -o ComIbmJVMManager -n jvmDebugPort -v ",D8)</f>
+        <v>mqsichangeproperties brk0002d -e remsdaq -o ComIbmJVMManager -n jvmDebugPort -v 65006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A9," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e ukffv1 -j -c active</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A9," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e ukffv1 -j -c inactive</v>
+      </c>
+      <c r="D9">
+        <f>D8+1</f>
+        <v>65007</v>
+      </c>
+      <c r="E9" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A9," -o ComIbmJVMManager -n jvmDebugPort -v ",D9)</f>
+        <v>mqsichangeproperties brk0002d -e ukffv1 -o ComIbmJVMManager -n jvmDebugPort -v 65007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A10," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e ukffv4 -j -c active</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A10," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e ukffv4 -j -c inactive</v>
+      </c>
+      <c r="D10">
+        <f>D9+1</f>
+        <v>65008</v>
+      </c>
+      <c r="E10" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A10," -o ComIbmJVMManager -n jvmDebugPort -v ",D10)</f>
+        <v>mqsichangeproperties brk0002d -e ukffv4 -o ComIbmJVMManager -n jvmDebugPort -v 65008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A11," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e ukffwsg -j -c active</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A11," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002d -e ukffwsg -j -c inactive</v>
+      </c>
+      <c r="D11">
+        <f>D10+1</f>
+        <v>65009</v>
+      </c>
+      <c r="E11" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A11," -o ComIbmJVMManager -n jvmDebugPort -v ",D11)</f>
+        <v>mqsichangeproperties brk0002d -e ukffwsg -o ComIbmJVMManager -n jvmDebugPort -v 65009</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E11">
+    <sortCondition ref="A2:A11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:F32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,6 +3009,28 @@
         <v>mqsicvp brk0002d -n IRSPLUS</v>
       </c>
       <c r="H32" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A34," -u ",B34," -p ",C34)</f>
+        <v>mqsisetdbparms brk0002d -n GartanRDS -u step_userd -p Stepuserd999</v>
+      </c>
+      <c r="F34" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A34)</f>
+        <v>mqsicvp brk0002d -n GartanRDS</v>
+      </c>
+      <c r="H34" s="22" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3406,10 +3761,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,6 +4201,62 @@
       <c r="E29" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A29,ConfigData!$D$2,") MAXMSGL(",B29,") MAXDEPTH(",C29,") DESCR('",D29,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(AD.CHANGES.RESOURCELINK) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('Active Directory Changes for ResourceLink') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>386</v>
+      </c>
+      <c r="B31">
+        <v>4096</v>
+      </c>
+      <c r="C31">
+        <v>5000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E31" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A31,ConfigData!$D$2,") MAXMSGL(",B31,") MAXDEPTH(",C31,") DESCR('",D31,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(RESOURCELINK.CHANGES) MAXMSGL(4096) MAXDEPTH(5000) DESCR('ResourceLink Changes') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>389</v>
+      </c>
+      <c r="B33">
+        <f>100*2^20</f>
+        <v>104857600</v>
+      </c>
+      <c r="C33">
+        <v>500000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>390</v>
+      </c>
+      <c r="E33" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A33,ConfigData!$D$2,") MAXMSGL(",B33,") MAXDEPTH(",C33,") DESCR('",D33,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(AUDITLOG) MAXMSGL(104857600) MAXDEPTH(500000) DESCR('Audit Logging Queue') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>393</v>
+      </c>
+      <c r="B34">
+        <f>100*2^20</f>
+        <v>104857600</v>
+      </c>
+      <c r="C34">
+        <v>500000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>394</v>
+      </c>
+      <c r="E34" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A34,ConfigData!$D$2,") MAXMSGL(",B34,") MAXDEPTH(",C34,") DESCR('",D34,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(EVENTMONITORING) MAXMSGL(104857600) MAXDEPTH(500000) DESCR('Event Monitoring Queue') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
   </sheetData>
@@ -5017,7 +5428,7 @@
   <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5604,21 +6015,28 @@
       <c r="B24" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="C24" s="7" t="str">
+        <f t="shared" ref="C24" si="6">IF(NOT(ISBLANK(B24)),CONCATENATE(A24,".",SUBSTITUTE(UPPER(B24),"-","")),"")</f>
+        <v>TRG.33FF6F9C39A611E4BACA0A5223B90000</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" ref="D24" si="7">IF(NOT(ISBLANK(C24)),LEN(C24),"")</f>
+        <v>36</v>
+      </c>
+      <c r="E24">
+        <f>IF(NOT(ISBLANK(#REF!)),4*2^10,"")</f>
+        <v>4096</v>
+      </c>
+      <c r="F24">
+        <f>IF(NOT(ISBLANK(#REF!)),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>385</v>
       </c>
       <c r="H24" s="7" t="str">
         <f>IF(NOT(ISBLANK(C24)),CONCATENATE("DEFINE QL(",C24,ConfigData!$D$2,") MAXMSGL(",E24,") MAXDEPTH(",F24,") DESCR('",G24,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v/>
+        <v>DEFINE QL(TRG.33FF6F9C39A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to poll ResourceLink for staff changes.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -6761,15 +7179,15 @@
         <v>250</v>
       </c>
       <c r="D73" s="7" t="str">
-        <f t="shared" ref="D73:D118" si="6">IF(NOT(ISBLANK(C73)),LEN(C73),"")</f>
+        <f t="shared" ref="D73:D118" si="8">IF(NOT(ISBLANK(C73)),LEN(C73),"")</f>
         <v/>
       </c>
       <c r="E73" t="str">
-        <f t="shared" ref="E73:E118" si="7">IF(NOT(ISBLANK(C73)),4*2^10,"")</f>
+        <f t="shared" ref="E73:E118" si="9">IF(NOT(ISBLANK(C73)),4*2^10,"")</f>
         <v/>
       </c>
       <c r="F73" t="str">
-        <f t="shared" ref="F73:F118" si="8">IF(NOT(ISBLANK(C73)),1,"")</f>
+        <f t="shared" ref="F73:F118" si="10">IF(NOT(ISBLANK(C73)),1,"")</f>
         <v/>
       </c>
     </row>
@@ -6781,15 +7199,15 @@
         <v>251</v>
       </c>
       <c r="D74" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -6801,15 +7219,15 @@
         <v>252</v>
       </c>
       <c r="D75" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -6821,15 +7239,15 @@
         <v>253</v>
       </c>
       <c r="D76" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -6841,15 +7259,15 @@
         <v>254</v>
       </c>
       <c r="D77" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -6861,15 +7279,15 @@
         <v>255</v>
       </c>
       <c r="D78" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -6881,15 +7299,15 @@
         <v>256</v>
       </c>
       <c r="D79" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -6901,15 +7319,15 @@
         <v>257</v>
       </c>
       <c r="D80" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -6921,15 +7339,15 @@
         <v>258</v>
       </c>
       <c r="D81" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -6941,15 +7359,15 @@
         <v>259</v>
       </c>
       <c r="D82" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -6961,15 +7379,15 @@
         <v>260</v>
       </c>
       <c r="D83" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -6981,15 +7399,15 @@
         <v>261</v>
       </c>
       <c r="D84" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7001,15 +7419,15 @@
         <v>262</v>
       </c>
       <c r="D85" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7021,15 +7439,15 @@
         <v>263</v>
       </c>
       <c r="D86" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7041,15 +7459,15 @@
         <v>264</v>
       </c>
       <c r="D87" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7061,15 +7479,15 @@
         <v>265</v>
       </c>
       <c r="D88" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7081,15 +7499,15 @@
         <v>266</v>
       </c>
       <c r="D89" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7101,15 +7519,15 @@
         <v>267</v>
       </c>
       <c r="D90" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7121,15 +7539,15 @@
         <v>268</v>
       </c>
       <c r="D91" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7141,15 +7559,15 @@
         <v>269</v>
       </c>
       <c r="D92" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7161,15 +7579,15 @@
         <v>270</v>
       </c>
       <c r="D93" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7181,15 +7599,15 @@
         <v>271</v>
       </c>
       <c r="D94" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7201,15 +7619,15 @@
         <v>272</v>
       </c>
       <c r="D95" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7221,15 +7639,15 @@
         <v>273</v>
       </c>
       <c r="D96" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7241,15 +7659,15 @@
         <v>274</v>
       </c>
       <c r="D97" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7261,15 +7679,15 @@
         <v>275</v>
       </c>
       <c r="D98" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7281,15 +7699,15 @@
         <v>276</v>
       </c>
       <c r="D99" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7301,15 +7719,15 @@
         <v>277</v>
       </c>
       <c r="D100" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7321,15 +7739,15 @@
         <v>278</v>
       </c>
       <c r="D101" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7341,15 +7759,15 @@
         <v>279</v>
       </c>
       <c r="D102" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7361,15 +7779,15 @@
         <v>280</v>
       </c>
       <c r="D103" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7381,15 +7799,15 @@
         <v>281</v>
       </c>
       <c r="D104" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7401,15 +7819,15 @@
         <v>282</v>
       </c>
       <c r="D105" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7421,15 +7839,15 @@
         <v>283</v>
       </c>
       <c r="D106" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7441,15 +7859,15 @@
         <v>284</v>
       </c>
       <c r="D107" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7461,15 +7879,15 @@
         <v>285</v>
       </c>
       <c r="D108" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7481,15 +7899,15 @@
         <v>286</v>
       </c>
       <c r="D109" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7501,15 +7919,15 @@
         <v>287</v>
       </c>
       <c r="D110" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7521,15 +7939,15 @@
         <v>288</v>
       </c>
       <c r="D111" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7541,15 +7959,15 @@
         <v>289</v>
       </c>
       <c r="D112" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7561,15 +7979,15 @@
         <v>290</v>
       </c>
       <c r="D113" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7581,15 +7999,15 @@
         <v>291</v>
       </c>
       <c r="D114" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7601,15 +8019,15 @@
         <v>292</v>
       </c>
       <c r="D115" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7621,15 +8039,15 @@
         <v>293</v>
       </c>
       <c r="D116" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7641,15 +8059,15 @@
         <v>294</v>
       </c>
       <c r="D117" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7661,15 +8079,15 @@
         <v>295</v>
       </c>
       <c r="D118" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7682,10 +8100,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7791,6 +8209,21 @@
         <v>DEFINE SUB('Active Directory Changes Subscriber for ResourceLink') TOPICSTR('/FGC/ACTIVEDIRECTORY/CHANGES') DEST('AD.CHANGES.RESOURCELINK') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" t="s">
+        <v>392</v>
+      </c>
+      <c r="C16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D16" s="22" t="str">
+        <f>CONCATENATE("DEFINE SUB('",A16,"') TOPICSTR('",UPPER(B16),"') DEST('",C16,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
+        <v>DEFINE SUB('Event Monitoring') TOPICSTR('$SYS/BROKER/#/MONITORING/#/#') DEST('EVENTMONITORING') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/trunk/EnvironmentConf/DEV.xlsx
+++ b/trunk/EnvironmentConf/DEV.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="416">
   <si>
     <t>Queue Name</t>
   </si>
@@ -1254,6 +1254,27 @@
   </si>
   <si>
     <t>Event Monitoring Off</t>
+  </si>
+  <si>
+    <t>/FGC/RESOURCELINK/CHANGES</t>
+  </si>
+  <si>
+    <t>ResourceLink Changes Subscriber for UKFF_Staff</t>
+  </si>
+  <si>
+    <t>ResourceLink Changes Subscriber for Active Directory</t>
+  </si>
+  <si>
+    <t>RESOURCELINK.CHANGES.UKFF_STAFF</t>
+  </si>
+  <si>
+    <t>RESOURCELINK.CHANGES.AD</t>
+  </si>
+  <si>
+    <t>ResourceLink Changes for UKFF_Staff</t>
+  </si>
+  <si>
+    <t>ResourceLink Changes for Active Directory</t>
   </si>
 </sst>
 </file>
@@ -2361,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,11 +2421,11 @@
         <v>mqsichangeflowmonitoring brk0002d -e backgroundservices -j -c inactive</v>
       </c>
       <c r="D2">
-        <v>65000</v>
+        <v>61000</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A2," -o ComIbmJVMManager -n jvmDebugPort -v ",D2)</f>
-        <v>mqsichangeproperties brk0002d -e backgroundservices -o ComIbmJVMManager -n jvmDebugPort -v 65000</v>
+        <v>mqsichangeproperties brk0002d -e backgroundservices -o ComIbmJVMManager -n jvmDebugPort -v 61000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2420,12 +2441,12 @@
         <v>#mqsichangeflowmonitoring brk0002d -e bpm4 -j -c inactive</v>
       </c>
       <c r="D3">
-        <f>D2+1</f>
-        <v>65001</v>
+        <f t="shared" ref="D3:D11" si="0">D2+1</f>
+        <v>61001</v>
       </c>
       <c r="E3" t="str">
         <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A3," -o ComIbmJVMManager -n jvmDebugPort -v ",D3)</f>
-        <v>mqsichangeproperties brk0002d -e bpm4 -o ComIbmJVMManager -n jvmDebugPort -v 65001</v>
+        <v>mqsichangeproperties brk0002d -e bpm4 -o ComIbmJVMManager -n jvmDebugPort -v 61001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,12 +2462,12 @@
         <v>mqsichangeflowmonitoring brk0002d -e debugger -j -c inactive</v>
       </c>
       <c r="D4">
-        <f>D3+1</f>
-        <v>65002</v>
+        <f t="shared" si="0"/>
+        <v>61002</v>
       </c>
       <c r="E4" t="str">
         <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A4," -o ComIbmJVMManager -n jvmDebugPort -v ",D4)</f>
-        <v>mqsichangeproperties brk0002d -e debugger -o ComIbmJVMManager -n jvmDebugPort -v 65002</v>
+        <v>mqsichangeproperties brk0002d -e debugger -o ComIbmJVMManager -n jvmDebugPort -v 61002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,12 +2483,12 @@
         <v>mqsichangeflowmonitoring brk0002d -e fgc -j -c inactive</v>
       </c>
       <c r="D5">
-        <f>D4+1</f>
-        <v>65003</v>
+        <f t="shared" si="0"/>
+        <v>61003</v>
       </c>
       <c r="E5" t="str">
         <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A5," -o ComIbmJVMManager -n jvmDebugPort -v ",D5)</f>
-        <v>mqsichangeproperties brk0002d -e fgc -o ComIbmJVMManager -n jvmDebugPort -v 65003</v>
+        <v>mqsichangeproperties brk0002d -e fgc -o ComIbmJVMManager -n jvmDebugPort -v 61003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2483,12 +2504,12 @@
         <v>mqsichangeflowmonitoring brk0002d -e meterreadings -j -c inactive</v>
       </c>
       <c r="D6">
-        <f>D5+1</f>
-        <v>65004</v>
+        <f t="shared" si="0"/>
+        <v>61004</v>
       </c>
       <c r="E6" t="str">
         <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A6," -o ComIbmJVMManager -n jvmDebugPort -v ",D6)</f>
-        <v>mqsichangeproperties brk0002d -e meterreadings -o ComIbmJVMManager -n jvmDebugPort -v 65004</v>
+        <v>mqsichangeproperties brk0002d -e meterreadings -o ComIbmJVMManager -n jvmDebugPort -v 61004</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2504,12 +2525,12 @@
         <v>mqsichangeflowmonitoring brk0002d -e oncallpayments -j -c inactive</v>
       </c>
       <c r="D7">
-        <f>D6+1</f>
-        <v>65005</v>
+        <f t="shared" si="0"/>
+        <v>61005</v>
       </c>
       <c r="E7" t="str">
         <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A7," -o ComIbmJVMManager -n jvmDebugPort -v ",D7)</f>
-        <v>mqsichangeproperties brk0002d -e oncallpayments -o ComIbmJVMManager -n jvmDebugPort -v 65005</v>
+        <v>mqsichangeproperties brk0002d -e oncallpayments -o ComIbmJVMManager -n jvmDebugPort -v 61005</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2525,12 +2546,12 @@
         <v>mqsichangeflowmonitoring brk0002d -e remsdaq -j -c inactive</v>
       </c>
       <c r="D8">
-        <f>D7+1</f>
-        <v>65006</v>
+        <f t="shared" si="0"/>
+        <v>61006</v>
       </c>
       <c r="E8" t="str">
         <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A8," -o ComIbmJVMManager -n jvmDebugPort -v ",D8)</f>
-        <v>mqsichangeproperties brk0002d -e remsdaq -o ComIbmJVMManager -n jvmDebugPort -v 65006</v>
+        <v>mqsichangeproperties brk0002d -e remsdaq -o ComIbmJVMManager -n jvmDebugPort -v 61006</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2546,12 +2567,12 @@
         <v>mqsichangeflowmonitoring brk0002d -e ukffv1 -j -c inactive</v>
       </c>
       <c r="D9">
-        <f>D8+1</f>
-        <v>65007</v>
+        <f t="shared" si="0"/>
+        <v>61007</v>
       </c>
       <c r="E9" t="str">
         <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A9," -o ComIbmJVMManager -n jvmDebugPort -v ",D9)</f>
-        <v>mqsichangeproperties brk0002d -e ukffv1 -o ComIbmJVMManager -n jvmDebugPort -v 65007</v>
+        <v>mqsichangeproperties brk0002d -e ukffv1 -o ComIbmJVMManager -n jvmDebugPort -v 61007</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2567,12 +2588,12 @@
         <v>mqsichangeflowmonitoring brk0002d -e ukffv4 -j -c inactive</v>
       </c>
       <c r="D10">
-        <f>D9+1</f>
-        <v>65008</v>
+        <f t="shared" si="0"/>
+        <v>61008</v>
       </c>
       <c r="E10" t="str">
         <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A10," -o ComIbmJVMManager -n jvmDebugPort -v ",D10)</f>
-        <v>mqsichangeproperties brk0002d -e ukffv4 -o ComIbmJVMManager -n jvmDebugPort -v 65008</v>
+        <v>mqsichangeproperties brk0002d -e ukffv4 -o ComIbmJVMManager -n jvmDebugPort -v 61008</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2588,12 +2609,12 @@
         <v>mqsichangeflowmonitoring brk0002d -e ukffwsg -j -c inactive</v>
       </c>
       <c r="D11">
-        <f>D10+1</f>
-        <v>65009</v>
+        <f t="shared" si="0"/>
+        <v>61009</v>
       </c>
       <c r="E11" t="str">
         <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A11," -o ComIbmJVMManager -n jvmDebugPort -v ",D11)</f>
-        <v>mqsichangeproperties brk0002d -e ukffwsg -o ComIbmJVMManager -n jvmDebugPort -v 65009</v>
+        <v>mqsichangeproperties brk0002d -e ukffwsg -o ComIbmJVMManager -n jvmDebugPort -v 61009</v>
       </c>
     </row>
   </sheetData>
@@ -3369,7 +3390,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3616,14 +3637,14 @@
         <v>4194304</v>
       </c>
       <c r="C12">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A12,ConfigData!$D$2,") MAXMSGL(",B12,") MAXDEPTH(",C12,") DESCR('",D12,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(UKFF.BPM.SERVICE.RESPONSE) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('Response Queue') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(UKFF.BPM.SERVICE.RESPONSE) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('Response Queue') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3761,10 +3782,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="E27" sqref="E27:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4221,41 +4242,79 @@
         <v>DEFINE QL(RESOURCELINK.CHANGES) MAXMSGL(4096) MAXDEPTH(5000) DESCR('ResourceLink Changes') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>412</v>
+      </c>
+      <c r="B32">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C32">
+        <v>5000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>414</v>
+      </c>
+      <c r="E32" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A32,ConfigData!$D$2,") MAXMSGL(",B32,") MAXDEPTH(",C32,") DESCR('",D32,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(RESOURCELINK.CHANGES.UKFF_STAFF) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('ResourceLink Changes for UKFF_Staff') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>413</v>
+      </c>
+      <c r="B33">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C33">
+        <v>5000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>415</v>
+      </c>
+      <c r="E33" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A33,ConfigData!$D$2,") MAXMSGL(",B33,") MAXDEPTH(",C33,") DESCR('",D33,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(RESOURCELINK.CHANGES.AD) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('ResourceLink Changes for Active Directory') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>389</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <f>100*2^20</f>
         <v>104857600</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>500000</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>390</v>
       </c>
-      <c r="E33" s="7" t="str">
-        <f>CONCATENATE("DEFINE QL(",A33,ConfigData!$D$2,") MAXMSGL(",B33,") MAXDEPTH(",C33,") DESCR('",D33,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+      <c r="E35" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A35,ConfigData!$D$2,") MAXMSGL(",B35,") MAXDEPTH(",C35,") DESCR('",D35,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(AUDITLOG) MAXMSGL(104857600) MAXDEPTH(500000) DESCR('Audit Logging Queue') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>393</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <f>100*2^20</f>
         <v>104857600</v>
       </c>
-      <c r="C34">
+      <c r="C36">
         <v>500000</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>394</v>
       </c>
-      <c r="E34" s="7" t="str">
-        <f>CONCATENATE("DEFINE QL(",A34,ConfigData!$D$2,") MAXMSGL(",B34,") MAXDEPTH(",C34,") DESCR('",D34,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+      <c r="E36" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A36,ConfigData!$D$2,") MAXMSGL(",B36,") MAXDEPTH(",C36,") DESCR('",D36,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(EVENTMONITORING) MAXMSGL(104857600) MAXDEPTH(500000) DESCR('Event Monitoring Queue') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
@@ -5425,10 +5484,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A22" sqref="A22:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5596,15 +5655,15 @@
         <v>TRG.EC185528119388BCE040007F01004D73</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" ref="D8:D72" si="1">IF(NOT(ISBLANK(C8)),LEN(C8),"")</f>
+        <f t="shared" ref="D8:D73" si="1">IF(NOT(ISBLANK(C8)),LEN(C8),"")</f>
         <v>36</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E72" si="2">IF(NOT(ISBLANK(C8)),4*2^10,"")</f>
+        <f t="shared" ref="E8:E73" si="2">IF(NOT(ISBLANK(C8)),4*2^10,"")</f>
         <v>4096</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F72" si="3">IF(NOT(ISBLANK(C8)),1,"")</f>
+        <f t="shared" ref="F8:F73" si="3">IF(NOT(ISBLANK(C8)),1,"")</f>
         <v>1</v>
       </c>
       <c r="G8" t="s">
@@ -6039,36 +6098,12 @@
         <v>DEFINE QL(TRG.33FF6F9C39A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to poll ResourceLink for staff changes.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H25" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C25)),CONCATENATE("DEFINE QL(",C25,ConfigData!$D$2,") MAXMSGL(",E25,") MAXDEPTH(",F25,") DESCR('",G25,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6092,7 +6127,7 @@
         <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D27" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6116,7 +6151,7 @@
         <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D28" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6140,7 +6175,7 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D29" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6164,7 +6199,7 @@
         <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D30" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6188,7 +6223,7 @@
         <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D31" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6212,7 +6247,7 @@
         <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D32" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6236,7 +6271,7 @@
         <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D33" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6260,7 +6295,7 @@
         <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D34" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6284,7 +6319,7 @@
         <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D35" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6308,7 +6343,7 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D36" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6332,7 +6367,7 @@
         <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D37" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6356,7 +6391,7 @@
         <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D38" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6380,7 +6415,7 @@
         <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D39" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6404,7 +6439,7 @@
         <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D40" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6428,7 +6463,7 @@
         <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D41" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6452,7 +6487,7 @@
         <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D42" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6476,7 +6511,7 @@
         <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D43" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6500,7 +6535,7 @@
         <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D44" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6524,7 +6559,7 @@
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D45" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6548,7 +6583,7 @@
         <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D46" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6572,7 +6607,7 @@
         <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D47" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6596,7 +6631,7 @@
         <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D48" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6620,7 +6655,7 @@
         <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D49" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6644,7 +6679,7 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D50" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6668,7 +6703,7 @@
         <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D51" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6692,7 +6727,7 @@
         <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D52" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6716,7 +6751,7 @@
         <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D53" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6740,7 +6775,7 @@
         <v>113</v>
       </c>
       <c r="B54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D54" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6764,7 +6799,7 @@
         <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D55" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6788,7 +6823,7 @@
         <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D56" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6812,7 +6847,7 @@
         <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D57" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6836,7 +6871,7 @@
         <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D58" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6860,7 +6895,7 @@
         <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D59" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6884,7 +6919,7 @@
         <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D60" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6908,7 +6943,7 @@
         <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D61" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6932,7 +6967,7 @@
         <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D62" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6956,7 +6991,7 @@
         <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D63" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6980,7 +7015,7 @@
         <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D64" s="7" t="str">
         <f t="shared" si="1"/>
@@ -7004,7 +7039,7 @@
         <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D65" s="7" t="str">
         <f t="shared" si="1"/>
@@ -7028,7 +7063,7 @@
         <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D66" s="7" t="str">
         <f t="shared" si="1"/>
@@ -7052,7 +7087,7 @@
         <v>113</v>
       </c>
       <c r="B67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D67" s="7" t="str">
         <f t="shared" si="1"/>
@@ -7076,7 +7111,7 @@
         <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D68" s="7" t="str">
         <f t="shared" si="1"/>
@@ -7090,13 +7125,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="H68" s="7" t="str">
+        <f>IF(NOT(ISBLANK(C68)),CONCATENATE("DEFINE QL(",C68,ConfigData!$D$2,") MAXMSGL(",E68,") MAXDEPTH(",F68,") DESCR('",G68,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>113</v>
       </c>
       <c r="B69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D69" s="7" t="str">
         <f t="shared" si="1"/>
@@ -7116,7 +7155,7 @@
         <v>113</v>
       </c>
       <c r="B70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D70" s="7" t="str">
         <f t="shared" si="1"/>
@@ -7136,7 +7175,7 @@
         <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D71" s="7" t="str">
         <f t="shared" si="1"/>
@@ -7156,7 +7195,7 @@
         <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D72" s="7" t="str">
         <f t="shared" si="1"/>
@@ -7176,18 +7215,18 @@
         <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D73" s="7" t="str">
-        <f t="shared" ref="D73:D118" si="8">IF(NOT(ISBLANK(C73)),LEN(C73),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E73" t="str">
-        <f t="shared" ref="E73:E118" si="9">IF(NOT(ISBLANK(C73)),4*2^10,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F73" t="str">
-        <f t="shared" ref="F73:F118" si="10">IF(NOT(ISBLANK(C73)),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7196,18 +7235,18 @@
         <v>113</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D74" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D74:D119" si="8">IF(NOT(ISBLANK(C74)),LEN(C74),"")</f>
         <v/>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E74:E119" si="9">IF(NOT(ISBLANK(C74)),4*2^10,"")</f>
         <v/>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F74:F119" si="10">IF(NOT(ISBLANK(C74)),1,"")</f>
         <v/>
       </c>
     </row>
@@ -7216,7 +7255,7 @@
         <v>113</v>
       </c>
       <c r="B75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D75" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7236,7 +7275,7 @@
         <v>113</v>
       </c>
       <c r="B76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D76" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7256,7 +7295,7 @@
         <v>113</v>
       </c>
       <c r="B77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D77" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7276,7 +7315,7 @@
         <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D78" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7296,7 +7335,7 @@
         <v>113</v>
       </c>
       <c r="B79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D79" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7316,7 +7355,7 @@
         <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D80" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7336,7 +7375,7 @@
         <v>113</v>
       </c>
       <c r="B81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D81" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7356,7 +7395,7 @@
         <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D82" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7376,7 +7415,7 @@
         <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D83" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7396,7 +7435,7 @@
         <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D84" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7416,7 +7455,7 @@
         <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D85" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7436,7 +7475,7 @@
         <v>113</v>
       </c>
       <c r="B86" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D86" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7456,7 +7495,7 @@
         <v>113</v>
       </c>
       <c r="B87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D87" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7476,7 +7515,7 @@
         <v>113</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D88" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7496,7 +7535,7 @@
         <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D89" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7516,7 +7555,7 @@
         <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D90" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7536,7 +7575,7 @@
         <v>113</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D91" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7556,7 +7595,7 @@
         <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7576,7 +7615,7 @@
         <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D93" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7596,7 +7635,7 @@
         <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7616,7 +7655,7 @@
         <v>113</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7636,7 +7675,7 @@
         <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7656,7 +7695,7 @@
         <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7676,7 +7715,7 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7696,7 +7735,7 @@
         <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7716,7 +7755,7 @@
         <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7736,7 +7775,7 @@
         <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7756,7 +7795,7 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7776,7 +7815,7 @@
         <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D103" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7796,7 +7835,7 @@
         <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7816,7 +7855,7 @@
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D105" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7836,7 +7875,7 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D106" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7856,7 +7895,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D107" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7876,7 +7915,7 @@
         <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D108" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7896,7 +7935,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D109" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7916,7 +7955,7 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D110" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7936,7 +7975,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D111" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7956,7 +7995,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D112" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7976,7 +8015,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D113" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7996,7 +8035,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D114" s="7" t="str">
         <f t="shared" si="8"/>
@@ -8016,7 +8055,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D115" s="7" t="str">
         <f t="shared" si="8"/>
@@ -8036,7 +8075,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D116" s="7" t="str">
         <f t="shared" si="8"/>
@@ -8056,7 +8095,7 @@
         <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D117" s="7" t="str">
         <f t="shared" si="8"/>
@@ -8076,7 +8115,7 @@
         <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D118" s="7" t="str">
         <f t="shared" si="8"/>
@@ -8087,6 +8126,26 @@
         <v/>
       </c>
       <c r="F118" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>113</v>
+      </c>
+      <c r="B119" t="s">
+        <v>295</v>
+      </c>
+      <c r="D119" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F119" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -8103,14 +8162,14 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="85.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="170.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8209,6 +8268,36 @@
         <v>DEFINE SUB('Active Directory Changes Subscriber for ResourceLink') TOPICSTR('/FGC/ACTIVEDIRECTORY/CHANGES') DEST('AD.CHANGES.RESOURCELINK') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="22" t="str">
+        <f t="shared" ref="D12:D13" si="0">CONCATENATE("DEFINE SUB('",A12,"') TOPICSTR('",UPPER(B12),"') DEST('",C12,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
+        <v>DEFINE SUB('ResourceLink Changes Subscriber for UKFF_Staff') TOPICSTR('/FGC/RESOURCELINK/CHANGES') DEST('RESOURCELINK.CHANGES.UKFF_STAFF') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" t="s">
+        <v>409</v>
+      </c>
+      <c r="C13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>DEFINE SUB('ResourceLink Changes Subscriber for Active Directory') TOPICSTR('/FGC/RESOURCELINK/CHANGES') DEST('RESOURCELINK.CHANGES.AD') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+      </c>
+    </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>391</v>

--- a/trunk/EnvironmentConf/DEV.xlsx
+++ b/trunk/EnvironmentConf/DEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="7290" windowWidth="28830" windowHeight="7350" tabRatio="636" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="-15" yWindow="7350" windowWidth="28830" windowHeight="7290" tabRatio="721" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -1991,7 +1991,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2380,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,7 +2394,7 @@
     <col min="5" max="5" width="97" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>405</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -2427,8 +2427,12 @@
         <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A2," -o ComIbmJVMManager -n jvmDebugPort -v ",D2)</f>
         <v>mqsichangeproperties brk0002d -e backgroundservices -o ComIbmJVMManager -n jvmDebugPort -v 61000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>CONCATENATE("mqsireportproperties ",ConfigData!D4," -e ",'Command Line'!A2," -o HTTPConnector -r")</f>
+        <v>mqsireportproperties brk0002d -e backgroundservices -o HTTPConnector -r</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>396</v>
       </c>
@@ -2449,7 +2453,7 @@
         <v>mqsichangeproperties brk0002d -e bpm4 -o ComIbmJVMManager -n jvmDebugPort -v 61001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>397</v>
       </c>
@@ -2470,7 +2474,7 @@
         <v>mqsichangeproperties brk0002d -e debugger -o ComIbmJVMManager -n jvmDebugPort -v 61002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>398</v>
       </c>
@@ -2491,7 +2495,7 @@
         <v>mqsichangeproperties brk0002d -e fgc -o ComIbmJVMManager -n jvmDebugPort -v 61003</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>399</v>
       </c>
@@ -2512,7 +2516,7 @@
         <v>mqsichangeproperties brk0002d -e meterreadings -o ComIbmJVMManager -n jvmDebugPort -v 61004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>400</v>
       </c>
@@ -2533,7 +2537,7 @@
         <v>mqsichangeproperties brk0002d -e oncallpayments -o ComIbmJVMManager -n jvmDebugPort -v 61005</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>401</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>mqsichangeproperties brk0002d -e remsdaq -o ComIbmJVMManager -n jvmDebugPort -v 61006</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>402</v>
       </c>
@@ -2575,7 +2579,7 @@
         <v>mqsichangeproperties brk0002d -e ukffv1 -o ComIbmJVMManager -n jvmDebugPort -v 61007</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>403</v>
       </c>
@@ -2596,7 +2600,7 @@
         <v>mqsichangeproperties brk0002d -e ukffv4 -o ComIbmJVMManager -n jvmDebugPort -v 61008</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>404</v>
       </c>
@@ -2630,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,21 +2838,21 @@
         <v>mqsicvp brk0002d -n PERF</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="22" t="str">
+      <c r="D16" s="25" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A16," -u ",B16," -p ",C16)</f>
         <v>mqsisetdbparms brk0002d -n RECRUITMENT_DEV -u rec_userd -p Recuserd999</v>
       </c>
-      <c r="F16" s="22" t="str">
+      <c r="F16" s="25" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A16)</f>
         <v>mqsicvp brk0002d -n RECRUITMENT_DEV</v>
       </c>
@@ -2989,25 +2993,25 @@
         <v>mqsicvp brk0002d -n MBRECORD</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="22" t="str">
+      <c r="D31" s="25" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A31," -u ",B31," -p ",C31)</f>
         <v>mqsisetdbparms brk0002d -n STEP_OCP -u step_userd -p Stepuserd999</v>
       </c>
-      <c r="F31" s="22" t="str">
+      <c r="F31" s="25" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A31)</f>
         <v>mqsicvp brk0002d -n STEP_OCP</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="25" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5458,22 +5462,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>CONCATENATE("mqsireportproperties ",ConfigData!D4,"-b httplistener -o HTTPConnector -r")</f>
-        <v>mqsireportproperties brk0002d-b httplistener -o HTTPConnector -r</v>
+        <f>CONCATENATE("mqsireportproperties ",ConfigData!D4," -b httplistener -o HTTPConnector -r")</f>
+        <v>mqsireportproperties brk0002d -b httplistener -o HTTPConnector -r</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>CONCATENATE("mqsichangeproperties ", ConfigData!D4,"-b httplistener -o HTTPConnector -n port -v ",ConfigData!D5)</f>
-        <v>mqsichangeproperties brk0002d-b httplistener -o HTTPConnector -n port -v 8080</v>
+        <f>CONCATENATE("mqsichangeproperties ", ConfigData!D4," -b httplistener -o HTTPConnector -n port -v ",ConfigData!D5)</f>
+        <v>mqsichangeproperties brk0002d -b httplistener -o HTTPConnector -n port -v 8080</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/EnvironmentConf/DEV.xlsx
+++ b/trunk/EnvironmentConf/DEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="7350" windowWidth="28830" windowHeight="7290" tabRatio="721" activeTab="13"/>
+    <workbookView xWindow="-15" yWindow="7350" windowWidth="28830" windowHeight="7290" tabRatio="721" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="417">
   <si>
     <t>Queue Name</t>
   </si>
@@ -1275,6 +1275,9 @@
   </si>
   <si>
     <t>ResourceLink Changes for Active Directory</t>
+  </si>
+  <si>
+    <t>Trigger to import employee skills from Gartan/ERAS.</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5491,8 +5494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6110,21 +6113,28 @@
       <c r="B26" t="s">
         <v>202</v>
       </c>
-      <c r="D26" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E26" t="str">
+      <c r="C26" s="7" t="str">
+        <f t="shared" ref="C26" si="8">IF(NOT(ISBLANK(B26)),CONCATENATE(A26,".",SUBSTITUTE(UPPER(B26),"-","")),"")</f>
+        <v>TRG.33FF701439A611E4BACA0A5223B90000</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" ref="D26" si="9">IF(NOT(ISBLANK(C26)),LEN(C26),"")</f>
+        <v>36</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F26" t="str">
+        <v>4096</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>416</v>
       </c>
       <c r="H26" s="7" t="str">
         <f>IF(NOT(ISBLANK(C26)),CONCATENATE("DEFINE QL(",C26,ConfigData!$D$2,") MAXMSGL(",E26,") MAXDEPTH(",F26,") DESCR('",G26,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v/>
+        <v>DEFINE QL(TRG.33FF701439A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to import employee skills from Gartan/ERAS.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -7243,15 +7253,15 @@
         <v>250</v>
       </c>
       <c r="D74" s="7" t="str">
-        <f t="shared" ref="D74:D119" si="8">IF(NOT(ISBLANK(C74)),LEN(C74),"")</f>
+        <f t="shared" ref="D74:D119" si="10">IF(NOT(ISBLANK(C74)),LEN(C74),"")</f>
         <v/>
       </c>
       <c r="E74" t="str">
-        <f t="shared" ref="E74:E119" si="9">IF(NOT(ISBLANK(C74)),4*2^10,"")</f>
+        <f t="shared" ref="E74:E119" si="11">IF(NOT(ISBLANK(C74)),4*2^10,"")</f>
         <v/>
       </c>
       <c r="F74" t="str">
-        <f t="shared" ref="F74:F119" si="10">IF(NOT(ISBLANK(C74)),1,"")</f>
+        <f t="shared" ref="F74:F119" si="12">IF(NOT(ISBLANK(C74)),1,"")</f>
         <v/>
       </c>
     </row>
@@ -7263,15 +7273,15 @@
         <v>251</v>
       </c>
       <c r="D75" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7283,15 +7293,15 @@
         <v>252</v>
       </c>
       <c r="D76" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7303,15 +7313,15 @@
         <v>253</v>
       </c>
       <c r="D77" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7323,15 +7333,15 @@
         <v>254</v>
       </c>
       <c r="D78" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7343,15 +7353,15 @@
         <v>255</v>
       </c>
       <c r="D79" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7363,15 +7373,15 @@
         <v>256</v>
       </c>
       <c r="D80" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7383,15 +7393,15 @@
         <v>257</v>
       </c>
       <c r="D81" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7403,15 +7413,15 @@
         <v>258</v>
       </c>
       <c r="D82" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7423,15 +7433,15 @@
         <v>259</v>
       </c>
       <c r="D83" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7443,15 +7453,15 @@
         <v>260</v>
       </c>
       <c r="D84" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7463,15 +7473,15 @@
         <v>261</v>
       </c>
       <c r="D85" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7483,15 +7493,15 @@
         <v>262</v>
       </c>
       <c r="D86" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7503,15 +7513,15 @@
         <v>263</v>
       </c>
       <c r="D87" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7523,15 +7533,15 @@
         <v>264</v>
       </c>
       <c r="D88" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7543,15 +7553,15 @@
         <v>265</v>
       </c>
       <c r="D89" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7563,15 +7573,15 @@
         <v>266</v>
       </c>
       <c r="D90" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7583,15 +7593,15 @@
         <v>267</v>
       </c>
       <c r="D91" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7603,15 +7613,15 @@
         <v>268</v>
       </c>
       <c r="D92" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7623,15 +7633,15 @@
         <v>269</v>
       </c>
       <c r="D93" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7643,15 +7653,15 @@
         <v>270</v>
       </c>
       <c r="D94" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7663,15 +7673,15 @@
         <v>271</v>
       </c>
       <c r="D95" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7683,15 +7693,15 @@
         <v>272</v>
       </c>
       <c r="D96" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7703,15 +7713,15 @@
         <v>273</v>
       </c>
       <c r="D97" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7723,15 +7733,15 @@
         <v>274</v>
       </c>
       <c r="D98" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7743,15 +7753,15 @@
         <v>275</v>
       </c>
       <c r="D99" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7763,15 +7773,15 @@
         <v>276</v>
       </c>
       <c r="D100" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7783,15 +7793,15 @@
         <v>277</v>
       </c>
       <c r="D101" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7803,15 +7813,15 @@
         <v>278</v>
       </c>
       <c r="D102" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7823,15 +7833,15 @@
         <v>279</v>
       </c>
       <c r="D103" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7843,15 +7853,15 @@
         <v>280</v>
       </c>
       <c r="D104" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7863,15 +7873,15 @@
         <v>281</v>
       </c>
       <c r="D105" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7883,15 +7893,15 @@
         <v>282</v>
       </c>
       <c r="D106" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7903,15 +7913,15 @@
         <v>283</v>
       </c>
       <c r="D107" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7923,15 +7933,15 @@
         <v>284</v>
       </c>
       <c r="D108" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7943,15 +7953,15 @@
         <v>285</v>
       </c>
       <c r="D109" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7963,15 +7973,15 @@
         <v>286</v>
       </c>
       <c r="D110" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -7983,15 +7993,15 @@
         <v>287</v>
       </c>
       <c r="D111" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8003,15 +8013,15 @@
         <v>288</v>
       </c>
       <c r="D112" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8023,15 +8033,15 @@
         <v>289</v>
       </c>
       <c r="D113" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8043,15 +8053,15 @@
         <v>290</v>
       </c>
       <c r="D114" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8063,15 +8073,15 @@
         <v>291</v>
       </c>
       <c r="D115" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8083,15 +8093,15 @@
         <v>292</v>
       </c>
       <c r="D116" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8103,15 +8113,15 @@
         <v>293</v>
       </c>
       <c r="D117" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8123,15 +8133,15 @@
         <v>294</v>
       </c>
       <c r="D118" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8143,15 +8153,15 @@
         <v>295</v>
       </c>
       <c r="D119" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>

--- a/trunk/EnvironmentConf/DEV.xlsx
+++ b/trunk/EnvironmentConf/DEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="7350" windowWidth="28830" windowHeight="7290" tabRatio="721" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="60" windowWidth="14520" windowHeight="12780" tabRatio="721" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="421">
   <si>
     <t>Queue Name</t>
   </si>
@@ -1148,9 +1148,6 @@
     <t>Trigger to perform sync operation between HR system and UKFF</t>
   </si>
   <si>
-    <t>Trigger to perform publish operation from Active Directory.</t>
-  </si>
-  <si>
     <t>STEP_OCP</t>
   </si>
   <si>
@@ -1278,13 +1275,28 @@
   </si>
   <si>
     <t>Trigger to import employee skills from Gartan/ERAS.</t>
+  </si>
+  <si>
+    <t>Trigger to poll Active Directory for changes.</t>
+  </si>
+  <si>
+    <t>ATP.SVC.CRUD</t>
+  </si>
+  <si>
+    <t>CRUD Service for Movers and Transfers</t>
+  </si>
+  <si>
+    <t>TRANSFERS</t>
+  </si>
+  <si>
+    <t>Movers and transfers database (P36)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1449,6 +1461,14 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1628,7 +1648,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1"/>
@@ -1675,6 +1695,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="11" applyFont="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Accent1" xfId="12" builtinId="29"/>
@@ -1994,7 +2015,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,21 +2420,21 @@
   <sheetData>
     <row r="1" spans="1:6" s="19" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A2," -j -c active")</f>
@@ -2437,7 +2458,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B3" t="str">
         <f>CONCATENATE("#mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A3," -j -c active")</f>
@@ -2458,7 +2479,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B4" t="str">
         <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A4," -j -c active")</f>
@@ -2479,7 +2500,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B5" t="str">
         <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A5," -j -c active")</f>
@@ -2500,7 +2521,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B6" t="str">
         <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A6," -j -c active")</f>
@@ -2521,7 +2542,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" t="str">
         <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A7," -j -c active")</f>
@@ -2542,7 +2563,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B8" t="str">
         <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A8," -j -c active")</f>
@@ -2563,7 +2584,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B9" t="str">
         <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A9," -j -c active")</f>
@@ -2584,7 +2605,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B10" t="str">
         <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A10," -j -c active")</f>
@@ -2605,7 +2626,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B11" t="str">
         <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A11," -j -c active")</f>
@@ -2635,10 +2656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,6 +2669,7 @@
     <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2996,31 +3018,31 @@
         <v>mqsicvp brk0002d -n MBRECORD</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="B31" s="25" t="s">
+    <row r="31" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="B31" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="25" t="str">
+      <c r="D31" s="34" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A31," -u ",B31," -p ",C31)</f>
         <v>mqsisetdbparms brk0002d -n STEP_OCP -u step_userd -p Stepuserd999</v>
       </c>
-      <c r="F31" s="25" t="str">
+      <c r="F31" s="34" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A31)</f>
         <v>mqsicvp brk0002d -n STEP_OCP</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="34" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>166</v>
@@ -3040,9 +3062,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>166</v>
@@ -3060,6 +3082,31 @@
       </c>
       <c r="H34" s="22" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A36," -u ",B36," -p ",C36)</f>
+        <v>mqsisetdbparms brk0002d -n TRANSFERS -u step_userd -p Stepuserd999</v>
+      </c>
+      <c r="F36" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A36)</f>
+        <v>mqsicvp brk0002d -n TRANSFERS</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3789,10 +3836,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:E29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4177,7 +4224,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B27">
         <v>4096</v>
@@ -4186,7 +4233,7 @@
         <v>5000</v>
       </c>
       <c r="D27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A27,ConfigData!$D$2,") MAXMSGL(",B27,") MAXDEPTH(",C27,") DESCR('",D27,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
@@ -4195,7 +4242,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B28">
         <f>4*2^20</f>
@@ -4205,7 +4252,7 @@
         <v>5000</v>
       </c>
       <c r="D28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E28" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A28,ConfigData!$D$2,") MAXMSGL(",B28,") MAXDEPTH(",C28,") DESCR('",D28,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
@@ -4214,7 +4261,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B29">
         <f>4*2^20</f>
@@ -4224,7 +4271,7 @@
         <v>5000</v>
       </c>
       <c r="D29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A29,ConfigData!$D$2,") MAXMSGL(",B29,") MAXDEPTH(",C29,") DESCR('",D29,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
@@ -4233,7 +4280,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B31">
         <v>4096</v>
@@ -4242,7 +4289,7 @@
         <v>5000</v>
       </c>
       <c r="D31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A31,ConfigData!$D$2,") MAXMSGL(",B31,") MAXDEPTH(",C31,") DESCR('",D31,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
@@ -4251,7 +4298,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B32">
         <f>4*2^20</f>
@@ -4261,7 +4308,7 @@
         <v>5000</v>
       </c>
       <c r="D32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E32" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A32,ConfigData!$D$2,") MAXMSGL(",B32,") MAXDEPTH(",C32,") DESCR('",D32,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
@@ -4270,7 +4317,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B33">
         <f>4*2^20</f>
@@ -4280,7 +4327,7 @@
         <v>5000</v>
       </c>
       <c r="D33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A33,ConfigData!$D$2,") MAXMSGL(",B33,") MAXDEPTH(",C33,") DESCR('",D33,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
@@ -4289,7 +4336,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B35">
         <f>100*2^20</f>
@@ -4299,7 +4346,7 @@
         <v>500000</v>
       </c>
       <c r="D35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A35,ConfigData!$D$2,") MAXMSGL(",B35,") MAXDEPTH(",C35,") DESCR('",D35,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
@@ -4308,7 +4355,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B36">
         <f>100*2^20</f>
@@ -4318,11 +4365,31 @@
         <v>500000</v>
       </c>
       <c r="D36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E36" s="7" t="str">
         <f>CONCATENATE("DEFINE QL(",A36,ConfigData!$D$2,") MAXMSGL(",B36,") MAXDEPTH(",C36,") DESCR('",D36,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(EVENTMONITORING) MAXMSGL(104857600) MAXDEPTH(500000) DESCR('Event Monitoring Queue') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>417</v>
+      </c>
+      <c r="B38">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C38">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>418</v>
+      </c>
+      <c r="E38" s="7" t="str">
+        <f>CONCATENATE("DEFINE QL(",A38,ConfigData!$D$2,") MAXMSGL(",B38,") MAXDEPTH(",C38,") DESCR('",D38,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(ATP.SVC.CRUD) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('CRUD Service for Movers and Transfers') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
   </sheetData>
@@ -5494,8 +5561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5643,8 +5710,8 @@
         <v>111</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C7)),CONCATENATE("DEFINE QL(",C7,ConfigData!$D$2,") MAXMSGL(",E7,") MAXDEPTH(",F7,") DESCR('",G7,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.EA938F900E757A39E040007F01001B22) MAXMSGL(4096) MAXDEPTH(1) DESCR('Invalid Transaction Report for Government Procurement Cards') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C7)),CONCATENATE("DEFINE QL(",C7,ConfigData!$D$2,") MAXMSGL(",E7,") MAXDEPTH(",F7,") DESCR('",G7,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.EA938F900E757A39E040007F01001B22) MAXMSGL(4096) MAXDEPTH(1) DESCR('Invalid Transaction Report for Government Procurement Cards') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
       <c r="I7" t="str">
         <f>CONCATENATE("/usr/mqm/samp/bin/amqsput ", C7," ",ConfigData!$D$3)</f>
@@ -5678,8 +5745,8 @@
         <v>115</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C8)),CONCATENATE("DEFINE QL(",C8,ConfigData!$D$2,") MAXMSGL(",E8,") MAXDEPTH(",F8,") DESCR('",G8,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.EC185528119388BCE040007F01004D73) MAXMSGL(4096) MAXDEPTH(1) DESCR('Used to instruct WMB to generate a number of UUIDs') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C8)),CONCATENATE("DEFINE QL(",C8,ConfigData!$D$2,") MAXMSGL(",E8,") MAXDEPTH(",F8,") DESCR('",G8,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.EC185528119388BCE040007F01004D73) MAXMSGL(4096) MAXDEPTH(1) DESCR('Used to instruct WMB to generate a number of UUIDs') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
       <c r="I8" t="str">
         <f>CONCATENATE("/usr/mqm/samp/bin/amqsput ", C8," ",ConfigData!$D$3)</f>
@@ -5713,8 +5780,8 @@
         <v>117</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C9)),CONCATENATE("DEFINE QL(",C9,ConfigData!$D$2,") MAXMSGL(",E9,") MAXDEPTH(",F9,") DESCR('",G9,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.EDCF96F73298DCD6E040007F01002A78) MAXMSGL(4096) MAXDEPTH(1) DESCR('Used to trigger the export of data to a Dream CSV import file') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C9)),CONCATENATE("DEFINE QL(",C9,ConfigData!$D$2,") MAXMSGL(",E9,") MAXDEPTH(",F9,") DESCR('",G9,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.EDCF96F73298DCD6E040007F01002A78) MAXMSGL(4096) MAXDEPTH(1) DESCR('Used to trigger the export of data to a Dream CSV import file') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
       <c r="I9" t="str">
         <f>CONCATENATE("/usr/mqm/samp/bin/amqsput ", C9," ",ConfigData!$D$3)</f>
@@ -5748,8 +5815,8 @@
         <v>125</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C10)),CONCATENATE("DEFINE QL(",C10,ConfigData!$D$2,") MAXMSGL(",E10,") MAXDEPTH(",F10,") DESCR('",G10,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.F3B0761D73C7BE83E040007F01006A57) MAXMSGL(4096) MAXDEPTH(1) DESCR('Gets and reports on BPM instances in an error state.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C10)),CONCATENATE("DEFINE QL(",C10,ConfigData!$D$2,") MAXMSGL(",E10,") MAXDEPTH(",F10,") DESCR('",G10,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.F3B0761D73C7BE83E040007F01006A57) MAXMSGL(4096) MAXDEPTH(1) DESCR('Gets and reports on BPM instances in an error state.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5779,8 +5846,8 @@
         <v>134</v>
       </c>
       <c r="H11" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C11)),CONCATENATE("DEFINE QL(",C11,ConfigData!$D$2,") MAXMSGL(",E11,") MAXDEPTH(",F11,") DESCR('",G11,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.F3D9AACA7497D170E040007F0100653C) MAXMSGL(4096) MAXDEPTH(1) DESCR('Received task notification email.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C11)),CONCATENATE("DEFINE QL(",C11,ConfigData!$D$2,") MAXMSGL(",E11,") MAXDEPTH(",F11,") DESCR('",G11,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.F3D9AACA7497D170E040007F0100653C) MAXMSGL(4096) MAXDEPTH(1) DESCR('Received task notification email.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5832,8 +5899,8 @@
         <v>189</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C13)),CONCATENATE("DEFINE QL(",C13,ConfigData!$D$2,") MAXMSGL(",E13,") MAXDEPTH(",F13,") DESCR('",G13,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.008121A9CA484115E050007F010005BF) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create On-Call Payments at Training Centre (OCP)') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C13)),CONCATENATE("DEFINE QL(",C13,ConfigData!$D$2,") MAXMSGL(",E13,") MAXDEPTH(",F13,") DESCR('",G13,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.008121A9CA484115E050007F010005BF) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create On-Call Payments at Training Centre (OCP)') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5863,8 +5930,8 @@
         <v>188</v>
       </c>
       <c r="H14" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C14)),CONCATENATE("DEFINE QL(",C14,ConfigData!$D$2,") MAXMSGL(",E14,") MAXDEPTH(",F14,") DESCR('",G14,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.01233579C0FA0EF3E050007F01002A55) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform an erroneous payments check. (OCP)') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C14)),CONCATENATE("DEFINE QL(",C14,ConfigData!$D$2,") MAXMSGL(",E14,") MAXDEPTH(",F14,") DESCR('",G14,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.01233579C0FA0EF3E050007F01002A55) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform an erroneous payments check. (OCP)') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5894,8 +5961,8 @@
         <v>187</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C15)),CONCATENATE("DEFINE QL(",C15,ConfigData!$D$2,") MAXMSGL(",E15,") MAXDEPTH(",F15,") DESCR('",G15,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.BED586A02D1811E480EC0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create the payments export file. (OCP)') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C15)),CONCATENATE("DEFINE QL(",C15,ConfigData!$D$2,") MAXMSGL(",E15,") MAXDEPTH(",F15,") DESCR('",G15,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.BED586A02D1811E480EC0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create the payments export file. (OCP)') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5925,8 +5992,8 @@
         <v>296</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C16)),CONCATENATE("DEFINE QL(",C16,ConfigData!$D$2,") MAXMSGL(",E16,") MAXDEPTH(",F16,") DESCR('",G16,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.33FF6C2239A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create Drill Night Payments (OCP)') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C16)),CONCATENATE("DEFINE QL(",C16,ConfigData!$D$2,") MAXMSGL(",E16,") MAXDEPTH(",F16,") DESCR('",G16,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.33FF6C2239A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create Drill Night Payments (OCP)') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5956,8 +6023,8 @@
         <v>300</v>
       </c>
       <c r="H18" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C18)),CONCATENATE("DEFINE QL(",C18,ConfigData!$D$2,") MAXMSGL(",E18,") MAXDEPTH(",F18,") DESCR('",G18,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.33FF6D4439A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to publish data from the STATSNX schema.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C18)),CONCATENATE("DEFINE QL(",C18,ConfigData!$D$2,") MAXMSGL(",E18,") MAXDEPTH(",F18,") DESCR('",G18,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.33FF6D4439A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to publish data from the STATSNX schema.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6009,8 +6076,8 @@
         <v>327</v>
       </c>
       <c r="H20" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C20)),CONCATENATE("DEFINE QL(",C20,ConfigData!$D$2,") MAXMSGL(",E20,") MAXDEPTH(",F20,") DESCR('",G20,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.33FF6DC639A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to validate meter readings.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C20)),CONCATENATE("DEFINE QL(",C20,ConfigData!$D$2,") MAXMSGL(",E20,") MAXDEPTH(",F20,") DESCR('",G20,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.33FF6DC639A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to validate meter readings.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -6040,8 +6107,8 @@
         <v>372</v>
       </c>
       <c r="H22" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C22)),CONCATENATE("DEFINE QL(",C22,ConfigData!$D$2,") MAXMSGL(",E22,") MAXDEPTH(",F22,") DESCR('",G22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.33FF6E3E39A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform sync operation between HR system and UKFF') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C22)),CONCATENATE("DEFINE QL(",C22,ConfigData!$D$2,") MAXMSGL(",E22,") MAXDEPTH(",F22,") DESCR('",G22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.33FF6E3E39A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform sync operation between HR system and UKFF') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6068,11 +6135,11 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="H23" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C23)),CONCATENATE("DEFINE QL(",C23,ConfigData!$D$2,") MAXMSGL(",E23,") MAXDEPTH(",F23,") DESCR('",G23,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.33FF6EB639A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform publish operation from Active Directory.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C23)),CONCATENATE("DEFINE QL(",C23,ConfigData!$D$2,") MAXMSGL(",E23,") MAXDEPTH(",F23,") DESCR('",G23,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.33FF6EB639A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to poll Active Directory for changes.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6099,11 +6166,11 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H24" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C24)),CONCATENATE("DEFINE QL(",C24,ConfigData!$D$2,") MAXMSGL(",E24,") MAXDEPTH(",F24,") DESCR('",G24,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.33FF6F9C39A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to poll ResourceLink for staff changes.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C24)),CONCATENATE("DEFINE QL(",C24,ConfigData!$D$2,") MAXMSGL(",E24,") MAXDEPTH(",F24,") DESCR('",G24,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.33FF6F9C39A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to poll ResourceLink for staff changes.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -6130,11 +6197,11 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H26" s="7" t="str">
-        <f>IF(NOT(ISBLANK(C26)),CONCATENATE("DEFINE QL(",C26,ConfigData!$D$2,") MAXMSGL(",E26,") MAXDEPTH(",F26,") DESCR('",G26,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE"),"")</f>
-        <v>DEFINE QL(TRG.33FF701439A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to import employee skills from Gartan/ERAS.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>IF(NOT(ISBLANK(C26)),CONCATENATE("DEFINE QL(",C26,ConfigData!$D$2,") MAXMSGL(",E26,") MAXDEPTH(",F26,") DESCR('",G26,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE"),"")</f>
+        <v>DEFINE QL(TRG.33FF701439A611E4BACA0A5223B90000) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to import employee skills from Gartan/ERAS.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -8255,13 +8322,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" t="s">
         <v>379</v>
-      </c>
-      <c r="B9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C9" t="s">
-        <v>380</v>
       </c>
       <c r="D9" s="22" t="str">
         <f>CONCATENATE("DEFINE SUB('",A9,"') TOPICSTR('",UPPER(B9),"') DEST('",C9,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
@@ -8270,13 +8337,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" t="s">
         <v>382</v>
-      </c>
-      <c r="B10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C10" t="s">
-        <v>383</v>
       </c>
       <c r="D10" s="22" t="str">
         <f>CONCATENATE("DEFINE SUB('",A10,"') TOPICSTR('",UPPER(B10),"') DEST('",C10,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
@@ -8285,13 +8352,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D12" s="22" t="str">
         <f t="shared" ref="D12:D13" si="0">CONCATENATE("DEFINE SUB('",A12,"') TOPICSTR('",UPPER(B12),"') DEST('",C12,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
@@ -8300,13 +8367,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D13" s="22" t="str">
         <f t="shared" si="0"/>
@@ -8315,13 +8382,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" t="s">
         <v>391</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>392</v>
-      </c>
-      <c r="C16" t="s">
-        <v>393</v>
       </c>
       <c r="D16" s="22" t="str">
         <f>CONCATENATE("DEFINE SUB('",A16,"') TOPICSTR('",UPPER(B16),"') DEST('",C16,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>

--- a/trunk/EnvironmentConf/DEV.xlsx
+++ b/trunk/EnvironmentConf/DEV.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="423">
   <si>
     <t>Queue Name</t>
   </si>
@@ -1290,6 +1290,12 @@
   </si>
   <si>
     <t>Movers and transfers database (P36)</t>
+  </si>
+  <si>
+    <t>RESOURCELINK</t>
+  </si>
+  <si>
+    <t>Attempt to standardise the DSN across environments.</t>
   </si>
 </sst>
 </file>
@@ -2656,10 +2662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,402 +2716,424 @@
     </row>
     <row r="3" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="D3" s="22" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A3," -u ",B3," -p ",C3)</f>
-        <v>mqsisetdbparms brk0002d -n ESBCONF -u wmbadmin -p d5FZg2E9i9dGnChE4w1q</v>
+        <v>mqsisetdbparms brk0002d -n RESOURCELINK -u CMTEST -p jm08_cmt</v>
       </c>
       <c r="F3" s="22" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A3)</f>
-        <v>mqsicvp brk0002d -n ESBCONF</v>
+        <v>mqsicvp brk0002d -n RESOURCELINK</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="D4" s="22" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A4," -u ",B4," -p ",C4)</f>
-        <v>mqsisetdbparms brk0002d -n BPMDB -u bpmdbusr -p b0z2kh95</v>
+        <v>mqsisetdbparms brk0002d -n ESBCONF -u wmbadmin -p d5FZg2E9i9dGnChE4w1q</v>
       </c>
       <c r="F4" s="22" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A4)</f>
+        <v>mqsicvp brk0002d -n ESBCONF</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A5," -u ",B5," -p ",C5)</f>
+        <v>mqsisetdbparms brk0002d -n BPMDB -u bpmdbusr -p b0z2kh95</v>
+      </c>
+      <c r="F5" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A5)</f>
         <v>mqsicvp brk0002d -n BPMDB</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="22" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A6," -u ",B6," -p ",C6)</f>
-        <v>mqsisetdbparms brk0002d -n STATSNX_TEST -u statsnx -p statsnx</v>
-      </c>
-      <c r="F6" s="22" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A6)</f>
-        <v>mqsicvp brk0002d -n STATSNX_TEST</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>109</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="D7" s="22" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A7," -u ",B7," -p ",C7)</f>
-        <v>mqsisetdbparms brk0002d -n STATSNX_LIVE -u statsnx -p R3ms09_1</v>
+        <v>mqsisetdbparms brk0002d -n STATSNX_TEST -u statsnx -p statsnx</v>
       </c>
       <c r="F7" s="22" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A7)</f>
+        <v>mqsicvp brk0002d -n STATSNX_TEST</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A8," -u ",B8," -p ",C8)</f>
+        <v>mqsisetdbparms brk0002d -n STATSNX_LIVE -u statsnx -p R3ms09_1</v>
+      </c>
+      <c r="F8" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A8)</f>
         <v>mqsicvp brk0002d -n STATSNX_LIVE</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H8" s="22" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A8," -u ",B8," -p ",C8)</f>
-        <v>mqsisetdbparms brk0002d -n CFRS_LIVE -u cfrs_live -p cfrs_live</v>
-      </c>
-      <c r="F8" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A8)</f>
-        <v>mqsicvp brk0002d -n CFRS_LIVE</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D9" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A9," -u ",B9," -p ",C9)</f>
-        <v>mqsisetdbparms brk0002d -n RRRED -u RRRED -p rrred</v>
+        <v>mqsisetdbparms brk0002d -n CFRS_LIVE -u cfrs_live -p cfrs_live</v>
       </c>
       <c r="F9" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A9)</f>
-        <v>mqsicvp brk0002d -n RRRED</v>
+        <v>mqsicvp brk0002d -n CFRS_LIVE</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A10," -u ",B10," -p ",C10)</f>
-        <v>mqsisetdbparms brk0002d -n DM_CADM -u DM_CADM -p dm_cadm</v>
+        <v>mqsisetdbparms brk0002d -n RRRED -u RRRED -p rrred</v>
       </c>
       <c r="F10" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A10)</f>
+        <v>mqsicvp brk0002d -n RRRED</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A11," -u ",B11," -p ",C11)</f>
+        <v>mqsisetdbparms brk0002d -n DM_CADM -u DM_CADM -p dm_cadm</v>
+      </c>
+      <c r="F11" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A11)</f>
         <v>mqsicvp brk0002d -n DM_CADM</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B13" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C13" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="D12" s="22" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A12," -u ",B12," -p ",C12)</f>
+      <c r="D13" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A13," -u ",B13," -p ",C13)</f>
         <v>mqsisetdbparms brk0002d -n PERF -u ywzv -p P6HBSAP</v>
       </c>
-      <c r="F12" s="22" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A12)</f>
+      <c r="F13" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A13)</f>
         <v>mqsicvp brk0002d -n PERF</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+    <row r="17" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B17" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C17" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="25" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A16," -u ",B16," -p ",C16)</f>
+      <c r="D17" s="25" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A17," -u ",B17," -p ",C17)</f>
         <v>mqsisetdbparms brk0002d -n RECRUITMENT_DEV -u rec_userd -p Recuserd999</v>
       </c>
-      <c r="F16" s="25" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A16)</f>
+      <c r="F17" s="25" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A17)</f>
         <v>mqsicvp brk0002d -n RECRUITMENT_DEV</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+    <row r="21" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+    <row r="22" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C22" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="25" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A21," -u ",B21," -p ",C21)</f>
+      <c r="D22" s="25" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A22," -u ",B22," -p ",C22)</f>
         <v>mqsisetdbparms brk0002d -n STEP_TEST -u STEP -p h53ks!f</v>
       </c>
-      <c r="F21" s="25" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A21)</f>
+      <c r="F22" s="25" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A22)</f>
         <v>mqsicvp brk0002d -n STEP_TEST</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+    <row r="23" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="22" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A23," -u ",B23," -p ",C23)</f>
-        <v>mqsisetdbparms brk0002d -n STEP -u STEP -p h53ks!f</v>
-      </c>
-      <c r="F23" s="22" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A23)</f>
-        <v>mqsicvp brk0002d -n STEP</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="D24" s="22" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A24," -u ",B24," -p ",C24)</f>
-        <v>mqsisetdbparms brk0002d -n STEP_SS -u step_userd -p Stepuserd999</v>
+        <v>mqsisetdbparms brk0002d -n STEP -u STEP -p h53ks!f</v>
       </c>
       <c r="F24" s="22" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A24)</f>
+        <v>mqsicvp brk0002d -n STEP</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A25," -u ",B25," -p ",C25)</f>
+        <v>mqsisetdbparms brk0002d -n STEP_SS -u step_userd -p Stepuserd999</v>
+      </c>
+      <c r="F25" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A25)</f>
         <v>mqsicvp brk0002d -n STEP_SS</v>
       </c>
-      <c r="H24" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="22" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A26," -u ",B26," -p ",C26)</f>
-        <v>mqsisetdbparms brk0002d -n METER_READINGS -u step_userd -p Stepuserd999</v>
-      </c>
-      <c r="F26" s="22" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A26)</f>
-        <v>mqsicvp brk0002d -n METER_READINGS</v>
-      </c>
-      <c r="H26" s="22" t="s">
+      <c r="H25" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>166</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>321</v>
+        <v>167</v>
       </c>
       <c r="D27" s="22" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A27," -u ",B27," -p ",C27)</f>
-        <v>mqsisetdbparms brk0002d -n TENSORNET -u step_userd -p 5t3PteamD</v>
+        <v>mqsisetdbparms brk0002d -n METER_READINGS -u step_userd -p Stepuserd999</v>
       </c>
       <c r="F27" s="22" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A27)</f>
-        <v>mqsicvp brk0002d -n TENSORNET</v>
+        <v>mqsicvp brk0002d -n METER_READINGS</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+    <row r="28" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A28," -u ",B28," -p ",C28)</f>
+        <v>mqsisetdbparms brk0002d -n TENSORNET -u step_userd -p 5t3PteamD</v>
+      </c>
+      <c r="F28" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A28)</f>
+        <v>mqsicvp brk0002d -n TENSORNET</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B30" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C30" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="22" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A29," -u ",B29," -p ",C29)</f>
+      <c r="D30" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A30," -u ",B30," -p ",C30)</f>
         <v>mqsisetdbparms brk0002d -n MBRECORD -u wmbadmin -p d5FZg2E9i9dGnChE4w1q</v>
       </c>
-      <c r="F29" s="22" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A29)</f>
+      <c r="F30" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A30)</f>
         <v>mqsicvp brk0002d -n MBRECORD</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+    <row r="32" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B32" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C32" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="34" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A31," -u ",B31," -p ",C31)</f>
+      <c r="D32" s="34" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A32," -u ",B32," -p ",C32)</f>
         <v>mqsisetdbparms brk0002d -n STEP_OCP -u step_userd -p Stepuserd999</v>
       </c>
-      <c r="F31" s="34" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A31)</f>
+      <c r="F32" s="34" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A32)</f>
         <v>mqsicvp brk0002d -n STEP_OCP</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="H32" s="34" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+    <row r="33" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B33" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C33" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="22" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A32," -u ",B32," -p ",C32)</f>
+      <c r="D33" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A33," -u ",B33," -p ",C33)</f>
         <v>mqsisetdbparms brk0002d -n IRSPLUS -u step_userd -p Stepuserd999</v>
       </c>
-      <c r="F32" s="22" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A32)</f>
+      <c r="F33" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A33)</f>
         <v>mqsicvp brk0002d -n IRSPLUS</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H33" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+    <row r="35" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B35" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C35" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="22" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A34," -u ",B34," -p ",C34)</f>
+      <c r="D35" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A35," -u ",B35," -p ",C35)</f>
         <v>mqsisetdbparms brk0002d -n GartanRDS -u step_userd -p Stepuserd999</v>
       </c>
-      <c r="F34" s="22" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A34)</f>
+      <c r="F35" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A35)</f>
         <v>mqsicvp brk0002d -n GartanRDS</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H35" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+    <row r="37" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B37" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C37" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="22" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A36," -u ",B36," -p ",C36)</f>
+      <c r="D37" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A37," -u ",B37," -p ",C37)</f>
         <v>mqsisetdbparms brk0002d -n TRANSFERS -u step_userd -p Stepuserd999</v>
       </c>
-      <c r="F36" s="22" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A36)</f>
+      <c r="F37" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A37)</f>
         <v>mqsicvp brk0002d -n TRANSFERS</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H37" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I37" s="22" t="s">
         <v>420</v>
       </c>
     </row>

--- a/trunk/EnvironmentConf/DEV.xlsx
+++ b/trunk/EnvironmentConf/DEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="14520" windowHeight="12780" tabRatio="721" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="120" windowWidth="14520" windowHeight="12720" tabRatio="721" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -2664,7 +2664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3867,7 +3867,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A27" sqref="A27:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5589,7 +5589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7:H26"/>
     </sheetView>
   </sheetViews>
@@ -8272,7 +8272,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A9" sqref="A9:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/EnvironmentConf/DEV.xlsx
+++ b/trunk/EnvironmentConf/DEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="120" windowWidth="14520" windowHeight="12720" tabRatio="721" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="120" windowWidth="14520" windowHeight="12720" tabRatio="721" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="427">
   <si>
     <t>Queue Name</t>
   </si>
@@ -1296,6 +1296,18 @@
   </si>
   <si>
     <t>Attempt to standardise the DSN across environments.</t>
+  </si>
+  <si>
+    <t>step_userl</t>
+  </si>
+  <si>
+    <t>Stepuserl999</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>PROD</t>
   </si>
 </sst>
 </file>
@@ -2662,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,29 +3123,59 @@
       <c r="H35" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="I35" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="D36" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A36," -u ",B36," -p ",C36)</f>
+        <v>mqsisetdbparms brk0002d -n GartanRDS -u step_userl -p Stepuserl999</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A36)</f>
+        <v>mqsicvp brk0002d -n GartanRDS</v>
+      </c>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B38" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C38" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="22" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A37," -u ",B37," -p ",C37)</f>
+      <c r="D38" s="22" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A38," -u ",B38," -p ",C38)</f>
         <v>mqsisetdbparms brk0002d -n TRANSFERS -u step_userd -p Stepuserd999</v>
       </c>
-      <c r="F37" s="22" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A37)</f>
+      <c r="F38" s="22" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A38)</f>
         <v>mqsicvp brk0002d -n TRANSFERS</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H38" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I38" s="22" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5589,7 +5631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7:H26"/>
     </sheetView>
   </sheetViews>
